--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1_2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="COLUMN_B" vbProcedure="false">Sheet1!$B$1:INDEX(Sheet1!$B:$B, COUNTA(Sheet1!$B:$B))</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"Sheet1"</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="COLUMN_B" vbProcedure="false">Sheet1_2!$B$1:INDEX(Sheet1_2!$B:$B, COUNTA(Sheet1_2!$B:$B))</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Sheet_Title" vbProcedure="false">"Sheet1"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t xml:space="preserve">7 day average</t>
   </si>
@@ -294,10 +298,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821554770318021"/>
-          <c:y val="0.0666282503781603"/>
-          <c:w val="0.705737400037195"/>
-          <c:h val="0.859468414607794"/>
+          <c:x val="0.0821592969730785"/>
+          <c:y val="0.0666330499927964"/>
+          <c:w val="0.705723717859302"/>
+          <c:h val="0.859386255582769"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -343,7 +347,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -383,25 +387,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Saturday</c:v>
+                  <c:v>Err:502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sunday</c:v>
+                  <c:v>Err:502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Monday</c:v>
+                  <c:v>Err:502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Tuesday</c:v>
+                  <c:v>Err:502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Wednesday</c:v>
+                  <c:v>Err:502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Thursday</c:v>
+                  <c:v>Friday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Friday</c:v>
+                  <c:v>Sunday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -412,26 +416,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>78</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.2</c:v>
+                  <c:v>78.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -478,7 +467,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -518,6 +507,288 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Err:502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Err:502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Err:502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Err:502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Err:502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$1:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>[BLUE]0.00;[RED]\-0.00</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="620327"/>
+        <c:axId val="1454648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="620327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dddd" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1454648"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1454648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.803180637982196"/>
+          <c:y val="0.303162877429535"/>
+          <c:w val="0.188473664688427"/>
+          <c:h val="0.0844151186975543"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0821128004835635"/>
+          <c:y val="0.0666330499927964"/>
+          <c:w val="0.705723717859302"/>
+          <c:h val="0.859386255582769"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1_2!$K$1:$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
                   <c:v>Saturday</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -543,7 +814,131 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$1:$M$7</c:f>
+              <c:f>Sheet1_2!$L$1:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1_2!$K$1:$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Friday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1_2!$M$1:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>[BLUE]0.00;[RED]\-0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -581,11 +976,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="51776083"/>
-        <c:axId val="26719474"/>
+        <c:axId val="89237867"/>
+        <c:axId val="30429386"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51776083"/>
+        <c:axId val="89237867"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,7 +1002,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -618,15 +1013,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26719474"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="30429386"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26719474"/>
+        <c:axId val="30429386"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,7 +1052,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -668,7 +1063,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51776083"/>
+        <c:crossAx val="89237867"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -687,10 +1082,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.803180637982196"/>
-          <c:y val="0.303162877429535"/>
-          <c:w val="0.188473664688427"/>
-          <c:h val="0.0844151186975543"/>
+          <c:x val="0.803180359882829"/>
+          <c:y val="0.303126350669932"/>
+          <c:w val="0.188459034687994"/>
+          <c:h val="0.0843599164325337"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -705,7 +1100,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+            <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -742,18 +1137,53 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>76680</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="1" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7742520" cy="4997520"/>
+        <a:ext cx="7742160" cy="4997160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>712800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76680</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9101160" y="1676520"/>
+        <a:ext cx="7742160" cy="4997160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -879,8 +1309,1495 @@
   </sheetPr>
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="69.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="3" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="12" style="1" width="13.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="n">
+        <v>46019</v>
+      </c>
+      <c r="B1" s="6" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="D1" s="3" t="n">
+        <f aca="false">B1*2.204623</f>
+        <v>173.5038301</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="4" t="n">
+        <f aca="false">A1</f>
+        <v>46019</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="8" t="e">
+        <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L1" s="9" t="e">
+        <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M1" s="10" t="e">
+        <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="11" t="n">
+        <f aca="false">B2-B1</f>
+        <v>-78.7</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <f aca="false">B2*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <f aca="false">C2*2.204623</f>
+        <v>-173.5038301</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <f aca="false">A2</f>
+        <v>46020</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <f aca="false">AVERAGE(B1:B7)</f>
+        <v>78.7</v>
+      </c>
+      <c r="K2" s="8" t="e">
+        <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L2" s="9" t="e">
+        <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M2" s="10" t="e">
+        <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>46021</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="11" t="n">
+        <f aca="false">B3-B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <f aca="false">B3*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <f aca="false">C3*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <f aca="false">A3</f>
+        <v>46021</v>
+      </c>
+      <c r="G3" s="7" t="e">
+        <f aca="false">AVERAGE(B2:B8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="8" t="e">
+        <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L3" s="9" t="e">
+        <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M3" s="10" t="e">
+        <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="11" t="n">
+        <f aca="false">B4-B3</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <f aca="false">B4*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <f aca="false">C4*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <f aca="false">A4</f>
+        <v>46022</v>
+      </c>
+      <c r="G4" s="7" t="e">
+        <f aca="false">AVERAGE(B3:B9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="12" t="e">
+        <f aca="true">MEDIAN(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" s="8" t="e">
+        <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L4" s="9" t="e">
+        <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M4" s="10" t="e">
+        <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="11" t="n">
+        <f aca="false">B5-B4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <f aca="false">B5*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <f aca="false">C5*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <f aca="false">A5</f>
+        <v>46023</v>
+      </c>
+      <c r="G5" s="7" t="e">
+        <f aca="false">AVERAGE(B4:B10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="e">
+        <f aca="true">AVERAGE(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="8" t="e">
+        <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" s="9" t="e">
+        <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" s="10" t="e">
+        <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="11" t="n">
+        <f aca="false">B6-B5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <f aca="false">B6*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <f aca="false">C6*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <f aca="false">A6</f>
+        <v>46024</v>
+      </c>
+      <c r="G6" s="7" t="e">
+        <f aca="false">AVERAGE(B5:B11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3" t="e">
+        <f aca="false">I5-I8</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
+        <v>46024</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="10" t="e">
+        <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="11" t="n">
+        <f aca="false">B7-B6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <f aca="false">B7*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">C7*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <f aca="false">A7</f>
+        <v>46025</v>
+      </c>
+      <c r="G7" s="7" t="e">
+        <f aca="false">AVERAGE(B6:B12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="e">
+        <f aca="false">102-I5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
+        <v>46019</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
+        <v>78.7</v>
+      </c>
+      <c r="M7" s="10" t="str">
+        <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
+        <v>7 day average</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="11" t="n">
+        <f aca="false">B8-B7</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <f aca="false">B8*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <f aca="false">C8*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <f aca="false">A8</f>
+        <v>46026</v>
+      </c>
+      <c r="G8" s="7" t="e">
+        <f aca="false">AVERAGE(B7:B13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="11" t="n">
+        <f aca="false">B9-B8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <f aca="false">B9*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <f aca="false">C9*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <f aca="false">A9</f>
+        <v>46027</v>
+      </c>
+      <c r="G9" s="7" t="e">
+        <f aca="false">AVERAGE(B8:B14)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="11" t="n">
+        <f aca="false">B10-B9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <f aca="false">B10*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <f aca="false">C10*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <f aca="false">A10</f>
+        <v>46028</v>
+      </c>
+      <c r="G10" s="7" t="e">
+        <f aca="false">AVERAGE(B9:B15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>46029</v>
+      </c>
+      <c r="C11" s="11" t="n">
+        <f aca="false">B11-B10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <f aca="false">B11*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <f aca="false">C11*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <f aca="false">A11</f>
+        <v>46029</v>
+      </c>
+      <c r="G11" s="7" t="e">
+        <f aca="false">AVERAGE(B10:B16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>46030</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <f aca="false">B12-B11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <f aca="false">B12*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <f aca="false">C12*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <f aca="false">A12</f>
+        <v>46030</v>
+      </c>
+      <c r="G12" s="7" t="e">
+        <f aca="false">AVERAGE(B11:B17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>46031</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <f aca="false">B13-B12</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <f aca="false">B13*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <f aca="false">C13*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <f aca="false">A13</f>
+        <v>46031</v>
+      </c>
+      <c r="G13" s="7" t="e">
+        <f aca="false">AVERAGE(B12:B18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>46032</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <f aca="false">B14-B13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <f aca="false">B14*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <f aca="false">C14*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <f aca="false">A14</f>
+        <v>46032</v>
+      </c>
+      <c r="G14" s="7" t="e">
+        <f aca="false">AVERAGE(B13:B19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C15" s="11" t="n">
+        <f aca="false">B15-B14</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <f aca="false">B15*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <f aca="false">C15*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <f aca="false">A15</f>
+        <v>46033</v>
+      </c>
+      <c r="G15" s="7" t="e">
+        <f aca="false">AVERAGE(B14:B20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>46034</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <f aca="false">B16-B15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <f aca="false">B16*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <f aca="false">C16*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <f aca="false">A16</f>
+        <v>46034</v>
+      </c>
+      <c r="G16" s="7" t="e">
+        <f aca="false">AVERAGE(B15:B21)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>46035</v>
+      </c>
+      <c r="C17" s="11" t="n">
+        <f aca="false">B17-B16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <f aca="false">B17*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <f aca="false">C17*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <f aca="false">A17</f>
+        <v>46035</v>
+      </c>
+      <c r="G17" s="7" t="e">
+        <f aca="false">AVERAGE(B16:B22)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>46036</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <f aca="false">B18-B17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <f aca="false">B18*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <f aca="false">C18*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <f aca="false">A18</f>
+        <v>46036</v>
+      </c>
+      <c r="G18" s="7" t="e">
+        <f aca="false">AVERAGE(B17:B23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>46037</v>
+      </c>
+      <c r="C19" s="11" t="n">
+        <f aca="false">B19-B18</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <f aca="false">B19*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <f aca="false">C19*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <f aca="false">A19</f>
+        <v>46037</v>
+      </c>
+      <c r="G19" s="7" t="e">
+        <f aca="false">AVERAGE(B18:B24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>46038</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <f aca="false">B20-B19</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <f aca="false">B20*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <f aca="false">C20*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <f aca="false">A20</f>
+        <v>46038</v>
+      </c>
+      <c r="G20" s="7" t="e">
+        <f aca="false">AVERAGE(B19:B25)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>46039</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <f aca="false">B21-B20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <f aca="false">B21*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <f aca="false">C21*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <f aca="false">A21</f>
+        <v>46039</v>
+      </c>
+      <c r="G21" s="7" t="e">
+        <f aca="false">AVERAGE(B20:B26)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>46040</v>
+      </c>
+      <c r="C22" s="11" t="n">
+        <f aca="false">B22-B21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <f aca="false">B22*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <f aca="false">C22*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <f aca="false">A22</f>
+        <v>46040</v>
+      </c>
+      <c r="G22" s="7" t="e">
+        <f aca="false">AVERAGE(B21:B27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>46041</v>
+      </c>
+      <c r="C23" s="11" t="n">
+        <f aca="false">B23-B22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <f aca="false">B23*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <f aca="false">C23*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <f aca="false">A23</f>
+        <v>46041</v>
+      </c>
+      <c r="G23" s="7" t="e">
+        <f aca="false">AVERAGE(B22:B28)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>46042</v>
+      </c>
+      <c r="C24" s="11" t="n">
+        <f aca="false">B24-B23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <f aca="false">B24*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <f aca="false">C24*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <f aca="false">A24</f>
+        <v>46042</v>
+      </c>
+      <c r="G24" s="7" t="e">
+        <f aca="false">AVERAGE(B23:B29)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>46043</v>
+      </c>
+      <c r="C25" s="11" t="n">
+        <f aca="false">B25-B24</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <f aca="false">B25*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <f aca="false">C25*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <f aca="false">A25</f>
+        <v>46043</v>
+      </c>
+      <c r="G25" s="7" t="e">
+        <f aca="false">AVERAGE(B24:B30)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>46044</v>
+      </c>
+      <c r="C26" s="11" t="n">
+        <f aca="false">B26-B25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <f aca="false">B26*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <f aca="false">C26*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <f aca="false">A26</f>
+        <v>46044</v>
+      </c>
+      <c r="G26" s="7" t="e">
+        <f aca="false">AVERAGE(B25:B31)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>46045</v>
+      </c>
+      <c r="C27" s="11" t="n">
+        <f aca="false">B27-B26</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <f aca="false">B27*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <f aca="false">C27*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <f aca="false">A27</f>
+        <v>46045</v>
+      </c>
+      <c r="G27" s="7" t="e">
+        <f aca="false">AVERAGE(B26:B32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>46046</v>
+      </c>
+      <c r="C28" s="11" t="n">
+        <f aca="false">B28-B27</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <f aca="false">B28*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <f aca="false">C28*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <f aca="false">A28</f>
+        <v>46046</v>
+      </c>
+      <c r="G28" s="7" t="e">
+        <f aca="false">AVERAGE(B27:B33)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>46047</v>
+      </c>
+      <c r="C29" s="11" t="n">
+        <f aca="false">B29-B28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <f aca="false">B29*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <f aca="false">C29*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <f aca="false">A29</f>
+        <v>46047</v>
+      </c>
+      <c r="G29" s="7" t="e">
+        <f aca="false">AVERAGE(B28:B34)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>46048</v>
+      </c>
+      <c r="C30" s="11" t="n">
+        <f aca="false">B30-B29</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <f aca="false">B30*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <f aca="false">C30*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <f aca="false">A30</f>
+        <v>46048</v>
+      </c>
+      <c r="G30" s="7" t="e">
+        <f aca="false">AVERAGE(B29:B35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>46049</v>
+      </c>
+      <c r="C31" s="11" t="n">
+        <f aca="false">B31-B30</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <f aca="false">B31*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <f aca="false">C31*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <f aca="false">A31</f>
+        <v>46049</v>
+      </c>
+      <c r="G31" s="7" t="e">
+        <f aca="false">AVERAGE(B30:B36)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>46050</v>
+      </c>
+      <c r="C32" s="11" t="n">
+        <f aca="false">B32-B31</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <f aca="false">B32*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <f aca="false">C32*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <f aca="false">A32</f>
+        <v>46050</v>
+      </c>
+      <c r="G32" s="7" t="e">
+        <f aca="false">AVERAGE(B31:B37)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>46051</v>
+      </c>
+      <c r="C33" s="11" t="n">
+        <f aca="false">B33-B32</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <f aca="false">B33*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <f aca="false">C33*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="n">
+        <f aca="false">A33</f>
+        <v>46051</v>
+      </c>
+      <c r="G33" s="7" t="e">
+        <f aca="false">AVERAGE(B32:B38)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C34" s="11" t="n">
+        <f aca="false">B34-B33</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <f aca="false">B34*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <f aca="false">C34*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <f aca="false">A34</f>
+        <v>46052</v>
+      </c>
+      <c r="G34" s="7" t="e">
+        <f aca="false">AVERAGE(B33:B39)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>46053</v>
+      </c>
+      <c r="C35" s="11" t="n">
+        <f aca="false">B35-B34</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <f aca="false">B35*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <f aca="false">C35*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <f aca="false">A35</f>
+        <v>46053</v>
+      </c>
+      <c r="G35" s="7" t="e">
+        <f aca="false">AVERAGE(B34:B40)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>46054</v>
+      </c>
+      <c r="C36" s="11" t="n">
+        <f aca="false">B36-B35</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <f aca="false">B36*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <f aca="false">C36*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <f aca="false">A36</f>
+        <v>46054</v>
+      </c>
+      <c r="G36" s="7" t="e">
+        <f aca="false">AVERAGE(B35:B41)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
+        <v>46055</v>
+      </c>
+      <c r="C37" s="11" t="n">
+        <f aca="false">B37-B36</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <f aca="false">B37*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <f aca="false">C37*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <f aca="false">A37</f>
+        <v>46055</v>
+      </c>
+      <c r="G37" s="7" t="e">
+        <f aca="false">AVERAGE(B36:B42)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>46056</v>
+      </c>
+      <c r="C38" s="11" t="n">
+        <f aca="false">B38-B37</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <f aca="false">B38*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <f aca="false">C38*2.204623</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <f aca="false">A38</f>
+        <v>46056</v>
+      </c>
+      <c r="G38" s="7" t="e">
+        <f aca="false">AVERAGE(B37:B43)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="C39" s="11"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
+      <c r="C40" s="11"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+      <c r="C41" s="11"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
+      <c r="C42" s="11"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+      <c r="C43" s="11"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+      <c r="C44" s="11"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+      <c r="C45" s="11"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="C46" s="11"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5"/>
+      <c r="C47" s="11"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5"/>
+      <c r="C48" s="11"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5"/>
+      <c r="C49" s="11"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5"/>
+      <c r="C50" s="11"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5"/>
+      <c r="C51" s="11"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5"/>
+      <c r="C52" s="11"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5"/>
+      <c r="C53" s="11"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5"/>
+      <c r="C54" s="11"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5"/>
+      <c r="C55" s="11"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5"/>
+      <c r="C56" s="11"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5"/>
+      <c r="C57" s="11"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="11"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5"/>
+      <c r="C59" s="11"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5"/>
+      <c r="C60" s="11"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5"/>
+      <c r="C61" s="11"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5"/>
+      <c r="C62" s="11"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5"/>
+      <c r="C63" s="11"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5"/>
+      <c r="C64" s="11"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5"/>
+      <c r="C65" s="11"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5"/>
+      <c r="C66" s="11"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5"/>
+      <c r="C67" s="11"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5"/>
+      <c r="C68" s="11"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5"/>
+      <c r="C69" s="11"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5"/>
+      <c r="C70" s="11"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5"/>
+      <c r="C71" s="11"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5"/>
+      <c r="C72" s="11"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5"/>
+      <c r="C73" s="11"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5"/>
+      <c r="C74" s="11"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="11"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5"/>
+      <c r="C76" s="11"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5"/>
+      <c r="C77" s="11"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5"/>
+      <c r="C78" s="11"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5"/>
+      <c r="C79" s="11"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5"/>
+      <c r="C80" s="11"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5"/>
+      <c r="C81" s="11"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5"/>
+      <c r="C82" s="11"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5"/>
+      <c r="C83" s="11"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="11"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="11"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="11"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="11"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="11"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="11"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="11"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Sans,Regular"&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M90"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2582,7 +4499,7 @@
       </c>
       <c r="E57" s="7" t="n">
         <f aca="false">C57*2.204623</f>
-        <v>-0.881849199999982</v>
+        <v>-0.881849199999981</v>
       </c>
       <c r="F57" s="4" t="n">
         <f aca="false">A57</f>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -29,15 +29,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t xml:space="preserve">7 day average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 2 of rfl</t>
   </si>
   <si>
     <t xml:space="preserve">Last 7 values</t>
   </si>
   <si>
     <t xml:space="preserve">7 day median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
   </si>
   <si>
     <t xml:space="preserve">LEFT</t>
@@ -298,10 +304,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821592969730785"/>
-          <c:y val="0.0666330499927964"/>
-          <c:w val="0.705723717859302"/>
-          <c:h val="0.859386255582769"/>
+          <c:x val="0.0821669379214136"/>
+          <c:y val="0.06664265129683"/>
+          <c:w val="0.70569634968612"/>
+          <c:h val="0.859221902017291"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -347,7 +353,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -399,13 +405,13 @@
                   <c:v>Err:502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Err:502</c:v>
+                  <c:v>Saturday</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Friday</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Sunday</c:v>
+                  <c:v>Wednesday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -416,8 +422,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>79.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>78.7</c:v>
@@ -467,7 +476,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -519,13 +528,13 @@
                   <c:v>Err:502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Err:502</c:v>
+                  <c:v>Saturday</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Friday</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Sunday</c:v>
+                  <c:v>Wednesday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -536,6 +545,9 @@
               <c:numCache>
                 <c:formatCode>[BLUE]0.00;[RED]\-0.00</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -549,11 +561,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="620327"/>
-        <c:axId val="1454648"/>
+        <c:axId val="330929"/>
+        <c:axId val="7660042"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="620327"/>
+        <c:axId val="330929"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,7 +587,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -586,7 +598,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1454648"/>
+        <c:crossAx val="7660042"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -594,7 +606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1454648"/>
+        <c:axId val="7660042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,7 +637,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -636,7 +648,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620327"/>
+        <c:crossAx val="330929"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -673,7 +685,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -711,10 +723,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821128004835635"/>
-          <c:y val="0.0666330499927964"/>
-          <c:w val="0.705723717859302"/>
-          <c:h val="0.859386255582769"/>
+          <c:x val="0.0821204371076494"/>
+          <c:y val="0.06664265129683"/>
+          <c:w val="0.70569634968612"/>
+          <c:h val="0.859221902017291"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -749,7 +761,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -873,7 +885,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -976,11 +988,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="89237867"/>
-        <c:axId val="30429386"/>
+        <c:axId val="80076285"/>
+        <c:axId val="97345605"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89237867"/>
+        <c:axId val="80076285"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,7 +1014,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1013,7 +1025,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30429386"/>
+        <c:crossAx val="97345605"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1021,7 +1033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30429386"/>
+        <c:axId val="97345605"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1064,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1063,7 +1075,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89237867"/>
+        <c:crossAx val="80076285"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1100,7 +1112,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1137,9 +1149,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>76680</xdr:colOff>
+      <xdr:colOff>75960</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1148,7 +1160,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7742160" cy="4997160"/>
+        <a:ext cx="7741440" cy="4996440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1172,9 +1184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>76680</xdr:colOff>
+      <xdr:colOff>75960</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1183,7 +1195,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7742160" cy="4997160"/>
+        <a:ext cx="7741440" cy="4996440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1310,7 +1322,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1330,25 +1342,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="n">
-        <v>46019</v>
+        <v>46063</v>
       </c>
       <c r="B1" s="6" t="n">
-        <v>78.7</v>
+        <v>79.3</v>
       </c>
       <c r="D1" s="3" t="n">
         <f aca="false">B1*2.204623</f>
-        <v>173.5038301</v>
+        <v>174.8266039</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="4" t="n">
         <f aca="false">A1</f>
-        <v>46019</v>
+        <v>46063</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="J1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K1" s="8" t="e">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
@@ -1365,28 +1380,30 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>46064</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>78.7</v>
+      </c>
       <c r="C2" s="11" t="n">
         <f aca="false">B2-B1</f>
-        <v>-78.7</v>
+        <v>-0.599999999999994</v>
       </c>
       <c r="D2" s="3" t="n">
         <f aca="false">B2*2.204623</f>
-        <v>0</v>
+        <v>173.5038301</v>
       </c>
       <c r="E2" s="7" t="n">
         <f aca="false">C2*2.204623</f>
-        <v>-173.5038301</v>
+        <v>-1.32277379999999</v>
       </c>
       <c r="F2" s="4" t="n">
         <f aca="false">A2</f>
-        <v>46020</v>
+        <v>46064</v>
       </c>
       <c r="G2" s="7" t="n">
         <f aca="false">AVERAGE(B1:B7)</f>
-        <v>78.7</v>
+        <v>79</v>
       </c>
       <c r="K2" s="8" t="e">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
@@ -1403,12 +1420,12 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
-        <v>46021</v>
+        <v>46065</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="11" t="n">
         <f aca="false">B3-B2</f>
-        <v>0</v>
+        <v>-78.7</v>
       </c>
       <c r="D3" s="3" t="n">
         <f aca="false">B3*2.204623</f>
@@ -1416,15 +1433,15 @@
       </c>
       <c r="E3" s="7" t="n">
         <f aca="false">C3*2.204623</f>
-        <v>0</v>
+        <v>-173.5038301</v>
       </c>
       <c r="F3" s="4" t="n">
         <f aca="false">A3</f>
-        <v>46021</v>
-      </c>
-      <c r="G3" s="7" t="e">
+        <v>46065</v>
+      </c>
+      <c r="G3" s="7" t="n">
         <f aca="false">AVERAGE(B2:B8)</f>
-        <v>#DIV/0!</v>
+        <v>78.7</v>
       </c>
       <c r="K3" s="8" t="e">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
@@ -1441,7 +1458,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
-        <v>46022</v>
+        <v>46066</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="11" t="n">
@@ -1458,14 +1475,14 @@
       </c>
       <c r="F4" s="4" t="n">
         <f aca="false">A4</f>
-        <v>46022</v>
+        <v>46066</v>
       </c>
       <c r="G4" s="7" t="e">
         <f aca="false">AVERAGE(B3:B9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="12" t="e">
         <f aca="true">MEDIAN(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
@@ -1486,7 +1503,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
-        <v>46023</v>
+        <v>46067</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="11" t="n">
@@ -1503,35 +1520,35 @@
       </c>
       <c r="F5" s="4" t="n">
         <f aca="false">A5</f>
-        <v>46023</v>
+        <v>46067</v>
       </c>
       <c r="G5" s="7" t="e">
         <f aca="false">AVERAGE(B4:B10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="12" t="e">
         <f aca="true">AVERAGE(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K5" s="8" t="e">
+      <c r="K5" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L5" s="9" t="e">
+        <v>46067</v>
+      </c>
+      <c r="L5" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="M5" s="10" t="e">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
-        <v>46024</v>
+        <v>46068</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="11" t="n">
@@ -1548,14 +1565,14 @@
       </c>
       <c r="F6" s="4" t="n">
         <f aca="false">A6</f>
-        <v>46024</v>
+        <v>46068</v>
       </c>
       <c r="G6" s="7" t="e">
         <f aca="false">AVERAGE(B5:B11)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" s="3" t="e">
         <f aca="false">I5-I8</f>
@@ -1563,20 +1580,20 @@
       </c>
       <c r="K6" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46024</v>
+        <v>46063</v>
       </c>
       <c r="L6" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="10" t="e">
+        <v>79.3</v>
+      </c>
+      <c r="M6" s="10" t="str">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>#DIV/0!</v>
+        <v>7 day average</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
-        <v>46025</v>
+        <v>46069</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="11" t="n">
@@ -1593,14 +1610,14 @@
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">A7</f>
-        <v>46025</v>
+        <v>46069</v>
       </c>
       <c r="G7" s="7" t="e">
         <f aca="false">AVERAGE(B6:B12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3" t="e">
         <f aca="false">102-I5</f>
@@ -1608,20 +1625,20 @@
       </c>
       <c r="K7" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46019</v>
+        <v>46064</v>
       </c>
       <c r="L7" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
         <v>78.7</v>
       </c>
-      <c r="M7" s="10" t="str">
+      <c r="M7" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>7 day average</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
-        <v>46026</v>
+        <v>46070</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="11" t="n">
@@ -1638,14 +1655,14 @@
       </c>
       <c r="F8" s="4" t="n">
         <f aca="false">A8</f>
-        <v>46026</v>
+        <v>46070</v>
       </c>
       <c r="G8" s="7" t="e">
         <f aca="false">AVERAGE(B7:B13)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>75</v>
@@ -1653,7 +1670,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
-        <v>46027</v>
+        <v>46071</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="11" t="n">
@@ -1670,7 +1687,7 @@
       </c>
       <c r="F9" s="4" t="n">
         <f aca="false">A9</f>
-        <v>46027</v>
+        <v>46071</v>
       </c>
       <c r="G9" s="7" t="e">
         <f aca="false">AVERAGE(B8:B14)</f>
@@ -1679,7 +1696,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
-        <v>46028</v>
+        <v>46072</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="11" t="n">
@@ -1696,7 +1713,7 @@
       </c>
       <c r="F10" s="4" t="n">
         <f aca="false">A10</f>
-        <v>46028</v>
+        <v>46072</v>
       </c>
       <c r="G10" s="7" t="e">
         <f aca="false">AVERAGE(B9:B15)</f>
@@ -1705,7 +1722,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
-        <v>46029</v>
+        <v>46073</v>
       </c>
       <c r="C11" s="11" t="n">
         <f aca="false">B11-B10</f>
@@ -1721,7 +1738,7 @@
       </c>
       <c r="F11" s="4" t="n">
         <f aca="false">A11</f>
-        <v>46029</v>
+        <v>46073</v>
       </c>
       <c r="G11" s="7" t="e">
         <f aca="false">AVERAGE(B10:B16)</f>
@@ -1730,7 +1747,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
-        <v>46030</v>
+        <v>46074</v>
       </c>
       <c r="C12" s="11" t="n">
         <f aca="false">B12-B11</f>
@@ -1746,7 +1763,7 @@
       </c>
       <c r="F12" s="4" t="n">
         <f aca="false">A12</f>
-        <v>46030</v>
+        <v>46074</v>
       </c>
       <c r="G12" s="7" t="e">
         <f aca="false">AVERAGE(B11:B17)</f>
@@ -1755,7 +1772,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
-        <v>46031</v>
+        <v>46075</v>
       </c>
       <c r="C13" s="11" t="n">
         <f aca="false">B13-B12</f>
@@ -1771,7 +1788,7 @@
       </c>
       <c r="F13" s="4" t="n">
         <f aca="false">A13</f>
-        <v>46031</v>
+        <v>46075</v>
       </c>
       <c r="G13" s="7" t="e">
         <f aca="false">AVERAGE(B12:B18)</f>
@@ -1780,7 +1797,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
-        <v>46032</v>
+        <v>46076</v>
       </c>
       <c r="C14" s="11" t="n">
         <f aca="false">B14-B13</f>
@@ -1796,7 +1813,7 @@
       </c>
       <c r="F14" s="4" t="n">
         <f aca="false">A14</f>
-        <v>46032</v>
+        <v>46076</v>
       </c>
       <c r="G14" s="7" t="e">
         <f aca="false">AVERAGE(B13:B19)</f>
@@ -1805,7 +1822,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
-        <v>46033</v>
+        <v>46077</v>
       </c>
       <c r="C15" s="11" t="n">
         <f aca="false">B15-B14</f>
@@ -1821,7 +1838,7 @@
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">A15</f>
-        <v>46033</v>
+        <v>46077</v>
       </c>
       <c r="G15" s="7" t="e">
         <f aca="false">AVERAGE(B14:B20)</f>
@@ -1830,7 +1847,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
-        <v>46034</v>
+        <v>46078</v>
       </c>
       <c r="C16" s="11" t="n">
         <f aca="false">B16-B15</f>
@@ -1846,7 +1863,7 @@
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">A16</f>
-        <v>46034</v>
+        <v>46078</v>
       </c>
       <c r="G16" s="7" t="e">
         <f aca="false">AVERAGE(B15:B21)</f>
@@ -1855,7 +1872,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
-        <v>46035</v>
+        <v>46079</v>
       </c>
       <c r="C17" s="11" t="n">
         <f aca="false">B17-B16</f>
@@ -1871,7 +1888,7 @@
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">A17</f>
-        <v>46035</v>
+        <v>46079</v>
       </c>
       <c r="G17" s="7" t="e">
         <f aca="false">AVERAGE(B16:B22)</f>
@@ -1880,7 +1897,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
-        <v>46036</v>
+        <v>46080</v>
       </c>
       <c r="C18" s="11" t="n">
         <f aca="false">B18-B17</f>
@@ -1896,7 +1913,7 @@
       </c>
       <c r="F18" s="4" t="n">
         <f aca="false">A18</f>
-        <v>46036</v>
+        <v>46080</v>
       </c>
       <c r="G18" s="7" t="e">
         <f aca="false">AVERAGE(B17:B23)</f>
@@ -1905,7 +1922,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
-        <v>46037</v>
+        <v>46081</v>
       </c>
       <c r="C19" s="11" t="n">
         <f aca="false">B19-B18</f>
@@ -1921,7 +1938,7 @@
       </c>
       <c r="F19" s="4" t="n">
         <f aca="false">A19</f>
-        <v>46037</v>
+        <v>46081</v>
       </c>
       <c r="G19" s="7" t="e">
         <f aca="false">AVERAGE(B18:B24)</f>
@@ -1930,7 +1947,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
-        <v>46038</v>
+        <v>46082</v>
       </c>
       <c r="C20" s="11" t="n">
         <f aca="false">B20-B19</f>
@@ -1946,7 +1963,7 @@
       </c>
       <c r="F20" s="4" t="n">
         <f aca="false">A20</f>
-        <v>46038</v>
+        <v>46082</v>
       </c>
       <c r="G20" s="7" t="e">
         <f aca="false">AVERAGE(B19:B25)</f>
@@ -1955,7 +1972,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
-        <v>46039</v>
+        <v>46083</v>
       </c>
       <c r="C21" s="11" t="n">
         <f aca="false">B21-B20</f>
@@ -1971,7 +1988,7 @@
       </c>
       <c r="F21" s="4" t="n">
         <f aca="false">A21</f>
-        <v>46039</v>
+        <v>46083</v>
       </c>
       <c r="G21" s="7" t="e">
         <f aca="false">AVERAGE(B20:B26)</f>
@@ -1980,7 +1997,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
-        <v>46040</v>
+        <v>46084</v>
       </c>
       <c r="C22" s="11" t="n">
         <f aca="false">B22-B21</f>
@@ -1996,7 +2013,7 @@
       </c>
       <c r="F22" s="4" t="n">
         <f aca="false">A22</f>
-        <v>46040</v>
+        <v>46084</v>
       </c>
       <c r="G22" s="7" t="e">
         <f aca="false">AVERAGE(B21:B27)</f>
@@ -2005,7 +2022,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
-        <v>46041</v>
+        <v>46085</v>
       </c>
       <c r="C23" s="11" t="n">
         <f aca="false">B23-B22</f>
@@ -2021,7 +2038,7 @@
       </c>
       <c r="F23" s="4" t="n">
         <f aca="false">A23</f>
-        <v>46041</v>
+        <v>46085</v>
       </c>
       <c r="G23" s="7" t="e">
         <f aca="false">AVERAGE(B22:B28)</f>
@@ -2030,7 +2047,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
-        <v>46042</v>
+        <v>46086</v>
       </c>
       <c r="C24" s="11" t="n">
         <f aca="false">B24-B23</f>
@@ -2046,7 +2063,7 @@
       </c>
       <c r="F24" s="4" t="n">
         <f aca="false">A24</f>
-        <v>46042</v>
+        <v>46086</v>
       </c>
       <c r="G24" s="7" t="e">
         <f aca="false">AVERAGE(B23:B29)</f>
@@ -2055,7 +2072,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
-        <v>46043</v>
+        <v>46087</v>
       </c>
       <c r="C25" s="11" t="n">
         <f aca="false">B25-B24</f>
@@ -2071,7 +2088,7 @@
       </c>
       <c r="F25" s="4" t="n">
         <f aca="false">A25</f>
-        <v>46043</v>
+        <v>46087</v>
       </c>
       <c r="G25" s="7" t="e">
         <f aca="false">AVERAGE(B24:B30)</f>
@@ -2080,7 +2097,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
-        <v>46044</v>
+        <v>46088</v>
       </c>
       <c r="C26" s="11" t="n">
         <f aca="false">B26-B25</f>
@@ -2096,7 +2113,7 @@
       </c>
       <c r="F26" s="4" t="n">
         <f aca="false">A26</f>
-        <v>46044</v>
+        <v>46088</v>
       </c>
       <c r="G26" s="7" t="e">
         <f aca="false">AVERAGE(B25:B31)</f>
@@ -2105,7 +2122,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
-        <v>46045</v>
+        <v>46089</v>
       </c>
       <c r="C27" s="11" t="n">
         <f aca="false">B27-B26</f>
@@ -2121,7 +2138,7 @@
       </c>
       <c r="F27" s="4" t="n">
         <f aca="false">A27</f>
-        <v>46045</v>
+        <v>46089</v>
       </c>
       <c r="G27" s="7" t="e">
         <f aca="false">AVERAGE(B26:B32)</f>
@@ -2130,7 +2147,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
-        <v>46046</v>
+        <v>46090</v>
       </c>
       <c r="C28" s="11" t="n">
         <f aca="false">B28-B27</f>
@@ -2146,7 +2163,7 @@
       </c>
       <c r="F28" s="4" t="n">
         <f aca="false">A28</f>
-        <v>46046</v>
+        <v>46090</v>
       </c>
       <c r="G28" s="7" t="e">
         <f aca="false">AVERAGE(B27:B33)</f>
@@ -2155,7 +2172,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
-        <v>46047</v>
+        <v>46091</v>
       </c>
       <c r="C29" s="11" t="n">
         <f aca="false">B29-B28</f>
@@ -2171,7 +2188,7 @@
       </c>
       <c r="F29" s="4" t="n">
         <f aca="false">A29</f>
-        <v>46047</v>
+        <v>46091</v>
       </c>
       <c r="G29" s="7" t="e">
         <f aca="false">AVERAGE(B28:B34)</f>
@@ -2180,7 +2197,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
-        <v>46048</v>
+        <v>46092</v>
       </c>
       <c r="C30" s="11" t="n">
         <f aca="false">B30-B29</f>
@@ -2196,7 +2213,7 @@
       </c>
       <c r="F30" s="4" t="n">
         <f aca="false">A30</f>
-        <v>46048</v>
+        <v>46092</v>
       </c>
       <c r="G30" s="7" t="e">
         <f aca="false">AVERAGE(B29:B35)</f>
@@ -2206,7 +2223,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
-        <v>46049</v>
+        <v>46093</v>
       </c>
       <c r="C31" s="11" t="n">
         <f aca="false">B31-B30</f>
@@ -2222,7 +2239,7 @@
       </c>
       <c r="F31" s="4" t="n">
         <f aca="false">A31</f>
-        <v>46049</v>
+        <v>46093</v>
       </c>
       <c r="G31" s="7" t="e">
         <f aca="false">AVERAGE(B30:B36)</f>
@@ -2231,7 +2248,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
-        <v>46050</v>
+        <v>46094</v>
       </c>
       <c r="C32" s="11" t="n">
         <f aca="false">B32-B31</f>
@@ -2247,7 +2264,7 @@
       </c>
       <c r="F32" s="4" t="n">
         <f aca="false">A32</f>
-        <v>46050</v>
+        <v>46094</v>
       </c>
       <c r="G32" s="7" t="e">
         <f aca="false">AVERAGE(B31:B37)</f>
@@ -2256,7 +2273,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
-        <v>46051</v>
+        <v>46095</v>
       </c>
       <c r="C33" s="11" t="n">
         <f aca="false">B33-B32</f>
@@ -2272,7 +2289,7 @@
       </c>
       <c r="F33" s="4" t="n">
         <f aca="false">A33</f>
-        <v>46051</v>
+        <v>46095</v>
       </c>
       <c r="G33" s="7" t="e">
         <f aca="false">AVERAGE(B32:B38)</f>
@@ -2281,7 +2298,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
-        <v>46052</v>
+        <v>46096</v>
       </c>
       <c r="C34" s="11" t="n">
         <f aca="false">B34-B33</f>
@@ -2297,7 +2314,7 @@
       </c>
       <c r="F34" s="4" t="n">
         <f aca="false">A34</f>
-        <v>46052</v>
+        <v>46096</v>
       </c>
       <c r="G34" s="7" t="e">
         <f aca="false">AVERAGE(B33:B39)</f>
@@ -2306,7 +2323,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
-        <v>46053</v>
+        <v>46097</v>
       </c>
       <c r="C35" s="11" t="n">
         <f aca="false">B35-B34</f>
@@ -2322,7 +2339,7 @@
       </c>
       <c r="F35" s="4" t="n">
         <f aca="false">A35</f>
-        <v>46053</v>
+        <v>46097</v>
       </c>
       <c r="G35" s="7" t="e">
         <f aca="false">AVERAGE(B34:B40)</f>
@@ -2331,7 +2348,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
-        <v>46054</v>
+        <v>46098</v>
       </c>
       <c r="C36" s="11" t="n">
         <f aca="false">B36-B35</f>
@@ -2347,7 +2364,7 @@
       </c>
       <c r="F36" s="4" t="n">
         <f aca="false">A36</f>
-        <v>46054</v>
+        <v>46098</v>
       </c>
       <c r="G36" s="7" t="e">
         <f aca="false">AVERAGE(B35:B41)</f>
@@ -2356,7 +2373,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
-        <v>46055</v>
+        <v>46099</v>
       </c>
       <c r="C37" s="11" t="n">
         <f aca="false">B37-B36</f>
@@ -2372,7 +2389,7 @@
       </c>
       <c r="F37" s="4" t="n">
         <f aca="false">A37</f>
-        <v>46055</v>
+        <v>46099</v>
       </c>
       <c r="G37" s="7" t="e">
         <f aca="false">AVERAGE(B36:B42)</f>
@@ -2381,7 +2398,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
-        <v>46056</v>
+        <v>46100</v>
       </c>
       <c r="C38" s="11" t="n">
         <f aca="false">B38-B37</f>
@@ -2397,7 +2414,7 @@
       </c>
       <c r="F38" s="4" t="n">
         <f aca="false">A38</f>
-        <v>46056</v>
+        <v>46100</v>
       </c>
       <c r="G38" s="7" t="e">
         <f aca="false">AVERAGE(B37:B43)</f>
@@ -2835,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K1" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
@@ -2949,7 +2966,7 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="12" t="n">
         <f aca="true">MEDIAN(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
@@ -3037,7 +3054,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" s="3" t="n">
         <f aca="false">I5-I8</f>
@@ -3084,7 +3101,7 @@
         <v>85.8571428571429</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3" t="n">
         <f aca="false">102-I5</f>
@@ -3131,7 +3148,7 @@
         <v>85.7857142857143</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>75</v>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">7 day average</t>
   </si>
@@ -304,10 +304,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821669379214136"/>
-          <c:y val="0.06664265129683"/>
-          <c:w val="0.70569634968612"/>
-          <c:h val="0.859221902017291"/>
+          <c:x val="0.0821707589285714"/>
+          <c:y val="0.0666474529865264"/>
+          <c:w val="0.705682663690476"/>
+          <c:h val="0.85913970747172"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -402,16 +402,16 @@
                   <c:v>Err:502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Err:502</c:v>
+                  <c:v>Friday</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Saturday</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Tuesday</c:v>
+                  <c:v>Wednesday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Wednesday</c:v>
+                  <c:v>Thursday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -422,14 +422,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>79.3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.7</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.7</c:v>
+                  <c:v>77.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -525,16 +528,16 @@
                   <c:v>Err:502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Err:502</c:v>
+                  <c:v>Friday</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Saturday</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Tuesday</c:v>
+                  <c:v>Wednesday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Wednesday</c:v>
+                  <c:v>Thursday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -545,8 +548,14 @@
               <c:numCache>
                 <c:formatCode>[BLUE]0.00;[RED]\-0.00</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="3">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.6</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>79</c:v>
+                  <c:v>78.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,11 +570,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="330929"/>
-        <c:axId val="7660042"/>
+        <c:axId val="34945248"/>
+        <c:axId val="76486263"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330929"/>
+        <c:axId val="34945248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,7 +607,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7660042"/>
+        <c:crossAx val="76486263"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -606,7 +615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7660042"/>
+        <c:axId val="76486263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +657,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330929"/>
+        <c:crossAx val="34945248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -723,10 +732,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821204371076494"/>
-          <c:y val="0.06664265129683"/>
-          <c:w val="0.70569634968612"/>
-          <c:h val="0.859221902017291"/>
+          <c:x val="0.082124255952381"/>
+          <c:y val="0.0666474529865264"/>
+          <c:w val="0.705682663690476"/>
+          <c:h val="0.85913970747172"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -988,11 +997,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="80076285"/>
-        <c:axId val="97345605"/>
+        <c:axId val="77620925"/>
+        <c:axId val="76858017"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80076285"/>
+        <c:axId val="77620925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1034,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97345605"/>
+        <c:crossAx val="76858017"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1033,7 +1042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97345605"/>
+        <c:axId val="76858017"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1084,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80076285"/>
+        <c:crossAx val="77620925"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1149,9 +1158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>75600</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1160,7 +1169,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7741440" cy="4996440"/>
+        <a:ext cx="7741080" cy="4996080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1184,9 +1193,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>75600</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1195,7 +1204,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7741440" cy="4996440"/>
+        <a:ext cx="7741080" cy="4996080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1321,8 +1330,8 @@
   </sheetPr>
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1403,7 +1412,7 @@
       </c>
       <c r="G2" s="7" t="n">
         <f aca="false">AVERAGE(B1:B7)</f>
-        <v>79</v>
+        <v>78.6</v>
       </c>
       <c r="K2" s="8" t="e">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
@@ -1422,18 +1431,20 @@
       <c r="A3" s="5" t="n">
         <v>46065</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="n">
+        <v>77.8</v>
+      </c>
       <c r="C3" s="11" t="n">
         <f aca="false">B3-B2</f>
-        <v>-78.7</v>
+        <v>-0.900000000000006</v>
       </c>
       <c r="D3" s="3" t="n">
         <f aca="false">B3*2.204623</f>
-        <v>0</v>
+        <v>171.5196694</v>
       </c>
       <c r="E3" s="7" t="n">
         <f aca="false">C3*2.204623</f>
-        <v>-173.5038301</v>
+        <v>-1.98416070000001</v>
       </c>
       <c r="F3" s="4" t="n">
         <f aca="false">A3</f>
@@ -1441,7 +1452,7 @@
       </c>
       <c r="G3" s="7" t="n">
         <f aca="false">AVERAGE(B2:B8)</f>
-        <v>78.7</v>
+        <v>78.25</v>
       </c>
       <c r="K3" s="8" t="e">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
@@ -1463,7 +1474,7 @@
       <c r="B4" s="6"/>
       <c r="C4" s="11" t="n">
         <f aca="false">B4-B3</f>
-        <v>0</v>
+        <v>-77.8</v>
       </c>
       <c r="D4" s="3" t="n">
         <f aca="false">B4*2.204623</f>
@@ -1471,15 +1482,15 @@
       </c>
       <c r="E4" s="7" t="n">
         <f aca="false">C4*2.204623</f>
-        <v>0</v>
+        <v>-171.5196694</v>
       </c>
       <c r="F4" s="4" t="n">
         <f aca="false">A4</f>
         <v>46066</v>
       </c>
-      <c r="G4" s="7" t="e">
+      <c r="G4" s="7" t="n">
         <f aca="false">AVERAGE(B3:B9)</f>
-        <v>#DIV/0!</v>
+        <v>77.8</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -1488,17 +1499,17 @@
         <f aca="true">MEDIAN(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K4" s="8" t="e">
+      <c r="K4" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L4" s="9" t="e">
+        <v>46066</v>
+      </c>
+      <c r="L4" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M4" s="10" t="e">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,15 +1546,15 @@
       </c>
       <c r="K5" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46067</v>
+        <v>46063</v>
       </c>
       <c r="L5" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="10" t="e">
+        <v>79.3</v>
+      </c>
+      <c r="M5" s="10" t="str">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>#DIV/0!</v>
+        <v>7 day average</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,24 +1582,18 @@
         <f aca="false">AVERAGE(B5:B11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="3" t="e">
-        <f aca="false">I5-I8</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H6" s="6"/>
       <c r="K6" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="L6" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>79.3</v>
-      </c>
-      <c r="M6" s="10" t="str">
+        <v>78.7</v>
+      </c>
+      <c r="M6" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>7 day average</v>
+        <v>78.6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,24 +1621,18 @@
         <f aca="false">AVERAGE(B6:B12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="3" t="e">
-        <f aca="false">102-I5</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H7" s="6"/>
       <c r="K7" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="L7" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.7</v>
+        <v>77.8</v>
       </c>
       <c r="M7" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>79</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,12 +1659,6 @@
       <c r="G8" s="7" t="e">
         <f aca="false">AVERAGE(B7:B13)</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2813,7 +2806,7 @@
   </sheetPr>
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -304,10 +304,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821707589285714"/>
-          <c:y val="0.0666474529865264"/>
-          <c:w val="0.705682663690476"/>
-          <c:h val="0.85913970747172"/>
+          <c:x val="0.0821745802911222"/>
+          <c:y val="0.0666522553682087"/>
+          <c:w val="0.705668976421895"/>
+          <c:h val="0.859057501080847"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -353,7 +353,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -393,25 +393,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Err:502</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Err:502</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Err:502</c:v>
+                  <c:v>Wednesday</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Friday</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Tuesday</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Wednesday</c:v>
+                  <c:v>Saturday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Thursday</c:v>
+                  <c:v>Sunday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -422,17 +422,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.7</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>77.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.3</c:v>
+                  <c:v>77.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.7</c:v>
+                  <c:v>76.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.8</c:v>
+                  <c:v>76.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -455,11 +464,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="FF420E"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -469,7 +478,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -479,7 +488,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -519,25 +528,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Err:502</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Err:502</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Err:502</c:v>
+                  <c:v>Wednesday</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Friday</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Tuesday</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Wednesday</c:v>
+                  <c:v>Saturday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Thursday</c:v>
+                  <c:v>Sunday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -548,14 +557,20 @@
               <c:numCache>
                 <c:formatCode>[BLUE]0.00;[RED]\-0.00</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>77.6833333333333</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.8</c:v>
+                  <c:v>77.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.6</c:v>
+                  <c:v>76.7666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.25</c:v>
+                  <c:v>76.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,11 +585,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="34945248"/>
-        <c:axId val="76486263"/>
+        <c:axId val="6293176"/>
+        <c:axId val="74591106"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34945248"/>
+        <c:axId val="6293176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +602,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -596,7 +611,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -607,7 +622,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76486263"/>
+        <c:crossAx val="74591106"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -615,7 +630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76486263"/>
+        <c:axId val="74591106"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,7 +640,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -637,7 +652,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -646,7 +661,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -657,7 +672,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34945248"/>
+        <c:crossAx val="6293176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -665,7 +680,7 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -694,7 +709,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+            <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -711,7 +726,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
@@ -732,10 +747,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.082124255952381"/>
-          <c:y val="0.0666474529865264"/>
-          <c:w val="0.705682663690476"/>
-          <c:h val="0.85913970747172"/>
+          <c:x val="0.0821280751523043"/>
+          <c:y val="0.0666522553682087"/>
+          <c:w val="0.705668976421895"/>
+          <c:h val="0.859057501080847"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -770,7 +785,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -870,11 +885,11 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="FF420E"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -884,7 +899,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -894,7 +909,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -997,11 +1012,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="77620925"/>
-        <c:axId val="76858017"/>
+        <c:axId val="48738442"/>
+        <c:axId val="20453383"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77620925"/>
+        <c:axId val="48738442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1029,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1023,7 +1038,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1034,7 +1049,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76858017"/>
+        <c:crossAx val="20453383"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1042,7 +1057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76858017"/>
+        <c:axId val="20453383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1067,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1064,7 +1079,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1073,7 +1088,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1084,7 +1099,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77620925"/>
+        <c:crossAx val="48738442"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1092,7 +1107,7 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -1121,7 +1136,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+            <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1138,13 +1153,445 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointMarkerLayout>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointMarkerLayout>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1158,9 +1605,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1169,7 +1616,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7741080" cy="4996080"/>
+        <a:ext cx="7740720" cy="4995720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1193,9 +1640,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1204,7 +1651,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7741080" cy="4996080"/>
+        <a:ext cx="7740720" cy="4995720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1225,37 +1672,37 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1331,7 +1778,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1374,17 +1821,17 @@
       <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="8" t="e">
+      <c r="K1" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L1" s="9" t="e">
+        <v>46063</v>
+      </c>
+      <c r="L1" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M1" s="10" t="e">
+        <v>79.3</v>
+      </c>
+      <c r="M1" s="10" t="str">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
+        <v>7 day average</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,19 +1859,19 @@
       </c>
       <c r="G2" s="7" t="n">
         <f aca="false">AVERAGE(B1:B7)</f>
-        <v>78.6</v>
-      </c>
-      <c r="K2" s="8" t="e">
+        <v>77.6833333333333</v>
+      </c>
+      <c r="K2" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L2" s="9" t="e">
+        <v>46063</v>
+      </c>
+      <c r="L2" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M2" s="10" t="e">
+        <v>79.3</v>
+      </c>
+      <c r="M2" s="10" t="str">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
+        <v>7 day average</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,37 +1899,39 @@
       </c>
       <c r="G3" s="7" t="n">
         <f aca="false">AVERAGE(B2:B8)</f>
-        <v>78.25</v>
-      </c>
-      <c r="K3" s="8" t="e">
+        <v>77.36</v>
+      </c>
+      <c r="K3" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L3" s="9" t="e">
+        <v>46064</v>
+      </c>
+      <c r="L3" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M3" s="10" t="e">
+        <v>78.7</v>
+      </c>
+      <c r="M3" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>#VALUE!</v>
+        <v>77.6833333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>46066</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="n">
+        <v>77.1</v>
+      </c>
       <c r="C4" s="11" t="n">
         <f aca="false">B4-B3</f>
-        <v>-77.8</v>
+        <v>-0.700000000000003</v>
       </c>
       <c r="D4" s="3" t="n">
         <f aca="false">B4*2.204623</f>
-        <v>0</v>
+        <v>169.9764333</v>
       </c>
       <c r="E4" s="7" t="n">
         <f aca="false">C4*2.204623</f>
-        <v>-171.5196694</v>
+        <v>-1.54323610000001</v>
       </c>
       <c r="F4" s="4" t="n">
         <f aca="false">A4</f>
@@ -1490,7 +1939,7 @@
       </c>
       <c r="G4" s="7" t="n">
         <f aca="false">AVERAGE(B3:B9)</f>
-        <v>77.8</v>
+        <v>77.025</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -1501,41 +1950,43 @@
       </c>
       <c r="K4" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46066</v>
+        <v>46065</v>
       </c>
       <c r="L4" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>0</v>
+        <v>77.8</v>
       </c>
       <c r="M4" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.8</v>
+        <v>77.36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>46067</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="n">
+        <v>76.6</v>
+      </c>
       <c r="C5" s="11" t="n">
         <f aca="false">B5-B4</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D5" s="3" t="n">
         <f aca="false">B5*2.204623</f>
-        <v>0</v>
+        <v>168.8741218</v>
       </c>
       <c r="E5" s="7" t="n">
         <f aca="false">C5*2.204623</f>
-        <v>0</v>
+        <v>-1.1023115</v>
       </c>
       <c r="F5" s="4" t="n">
         <f aca="false">A5</f>
         <v>46067</v>
       </c>
-      <c r="G5" s="7" t="e">
+      <c r="G5" s="7" t="n">
         <f aca="false">AVERAGE(B4:B10)</f>
-        <v>#DIV/0!</v>
+        <v>76.7666666666667</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>4</v>
@@ -1546,29 +1997,31 @@
       </c>
       <c r="K5" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="L5" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>79.3</v>
-      </c>
-      <c r="M5" s="10" t="str">
+        <v>77.1</v>
+      </c>
+      <c r="M5" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>7 day average</v>
+        <v>77.025</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>46068</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="n">
+        <v>76.6</v>
+      </c>
       <c r="C6" s="11" t="n">
         <f aca="false">B6-B5</f>
         <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
         <f aca="false">B6*2.204623</f>
-        <v>0</v>
+        <v>168.8741218</v>
       </c>
       <c r="E6" s="7" t="n">
         <f aca="false">C6*2.204623</f>
@@ -1578,22 +2031,22 @@
         <f aca="false">A6</f>
         <v>46068</v>
       </c>
-      <c r="G6" s="7" t="e">
+      <c r="G6" s="7" t="n">
         <f aca="false">AVERAGE(B5:B11)</f>
-        <v>#DIV/0!</v>
+        <v>76.6</v>
       </c>
       <c r="H6" s="6"/>
       <c r="K6" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46064</v>
+        <v>46067</v>
       </c>
       <c r="L6" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.7</v>
+        <v>76.6</v>
       </c>
       <c r="M6" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>78.6</v>
+        <v>76.7666666666667</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,7 +2056,7 @@
       <c r="B7" s="6"/>
       <c r="C7" s="11" t="n">
         <f aca="false">B7-B6</f>
-        <v>0</v>
+        <v>-76.6</v>
       </c>
       <c r="D7" s="3" t="n">
         <f aca="false">B7*2.204623</f>
@@ -1611,28 +2064,28 @@
       </c>
       <c r="E7" s="7" t="n">
         <f aca="false">C7*2.204623</f>
-        <v>0</v>
+        <v>-168.8741218</v>
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">A7</f>
         <v>46069</v>
       </c>
-      <c r="G7" s="7" t="e">
+      <c r="G7" s="7" t="n">
         <f aca="false">AVERAGE(B6:B12)</f>
-        <v>#DIV/0!</v>
+        <v>76.6</v>
       </c>
       <c r="H7" s="6"/>
       <c r="K7" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46065</v>
+        <v>46068</v>
       </c>
       <c r="L7" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>77.8</v>
+        <v>76.6</v>
       </c>
       <c r="M7" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>78.25</v>
+        <v>76.6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t xml:space="preserve">7 day average</t>
   </si>
@@ -43,7 +43,13 @@
     <t xml:space="preserve">7 day median</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
+    <t xml:space="preserve">target kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILY CALORIE DEFICIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remaining rfl ~days:</t>
   </si>
   <si>
     <t xml:space="preserve">LEFT</t>
@@ -304,10 +310,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821745802911222"/>
-          <c:y val="0.0666522553682087"/>
-          <c:w val="0.705668976421895"/>
-          <c:h val="0.859057501080847"/>
+          <c:x val="0.0821784020091154"/>
+          <c:y val="0.0666570584420264"/>
+          <c:w val="0.705655287880197"/>
+          <c:h val="0.858975282842113"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -393,25 +399,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Tuesday</c:v>
+                  <c:v>Wednesday</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tuesday</c:v>
+                  <c:v>Thursday</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Wednesday</c:v>
+                  <c:v>Friday</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Thursday</c:v>
+                  <c:v>Saturday</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Friday</c:v>
+                  <c:v>Sunday</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Saturday</c:v>
+                  <c:v>Monday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Sunday</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -423,25 +429,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>79.3</c:v>
+                  <c:v>78.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.3</c:v>
+                  <c:v>77.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.7</c:v>
+                  <c:v>77.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.8</c:v>
+                  <c:v>76.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.1</c:v>
+                  <c:v>76.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.6</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.6</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,25 +534,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Tuesday</c:v>
+                  <c:v>Wednesday</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tuesday</c:v>
+                  <c:v>Thursday</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Wednesday</c:v>
+                  <c:v>Friday</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Thursday</c:v>
+                  <c:v>Saturday</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Friday</c:v>
+                  <c:v>Sunday</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Saturday</c:v>
+                  <c:v>Monday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Sunday</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -557,20 +563,26 @@
               <c:numCache>
                 <c:formatCode>[BLUE]0.00;[RED]\-0.00</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>77.5142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.1142857142857</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.6833333333333</c:v>
+                  <c:v>76.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.36</c:v>
+                  <c:v>76.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.025</c:v>
+                  <c:v>76.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.7666666666667</c:v>
+                  <c:v>76.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.6</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,11 +597,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="6293176"/>
-        <c:axId val="74591106"/>
+        <c:axId val="7504349"/>
+        <c:axId val="23834408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="6293176"/>
+        <c:axId val="7504349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,7 +634,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74591106"/>
+        <c:crossAx val="23834408"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -630,7 +642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74591106"/>
+        <c:axId val="23834408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -672,7 +684,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6293176"/>
+        <c:crossAx val="7504349"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -747,10 +759,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821280751523043"/>
-          <c:y val="0.0666522553682087"/>
-          <c:w val="0.705668976421895"/>
-          <c:h val="0.859057501080847"/>
+          <c:x val="0.0821318947074691"/>
+          <c:y val="0.0666570584420264"/>
+          <c:w val="0.705655287880197"/>
+          <c:h val="0.858975282842113"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1012,11 +1024,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="48738442"/>
-        <c:axId val="20453383"/>
+        <c:axId val="69362952"/>
+        <c:axId val="50358998"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48738442"/>
+        <c:axId val="69362952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1061,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20453383"/>
+        <c:crossAx val="50358998"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1057,7 +1069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20453383"/>
+        <c:axId val="50358998"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,7 +1111,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48738442"/>
+        <c:crossAx val="69362952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1178,9 +1190,11 @@
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
+    <cs:lineWidthScale>1</cs:lineWidthScale>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor"/>
+    <a:defRPr sz="1800" b="0"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1388,9 +1402,11 @@
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
+    <cs:lineWidthScale>1</cs:lineWidthScale>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor"/>
+    <a:defRPr sz="1800" b="0"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1607,7 +1623,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>75240</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1615,8 +1631,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7740720" cy="4995720"/>
+        <a:off x="9968040" y="1676520"/>
+        <a:ext cx="7740360" cy="4995360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1640,9 +1656,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1651,7 +1667,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7740720" cy="4995720"/>
+        <a:ext cx="7740360" cy="4995360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1778,7 +1794,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1789,7 +1805,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="3" width="13.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="13.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="13.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="13.21"/>
@@ -1823,15 +1839,15 @@
       </c>
       <c r="K1" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="L1" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>79.3</v>
-      </c>
-      <c r="M1" s="10" t="str">
+        <v>78.7</v>
+      </c>
+      <c r="M1" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>7 day average</v>
+        <v>77.5142857142857</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,19 +1875,19 @@
       </c>
       <c r="G2" s="7" t="n">
         <f aca="false">AVERAGE(B1:B7)</f>
-        <v>77.6833333333333</v>
+        <v>77.5142857142857</v>
       </c>
       <c r="K2" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46063</v>
+        <v>46065</v>
       </c>
       <c r="L2" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>79.3</v>
-      </c>
-      <c r="M2" s="10" t="str">
+        <v>77.8</v>
+      </c>
+      <c r="M2" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>7 day average</v>
+        <v>77.1142857142857</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,19 +1915,19 @@
       </c>
       <c r="G3" s="7" t="n">
         <f aca="false">AVERAGE(B2:B8)</f>
-        <v>77.36</v>
+        <v>77.1142857142857</v>
       </c>
       <c r="K3" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46064</v>
+        <v>46066</v>
       </c>
       <c r="L3" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.7</v>
+        <v>77.1</v>
       </c>
       <c r="M3" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.6833333333333</v>
+        <v>76.85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,26 +1955,26 @@
       </c>
       <c r="G4" s="7" t="n">
         <f aca="false">AVERAGE(B3:B9)</f>
-        <v>77.025</v>
+        <v>76.85</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="12" t="e">
+      <c r="I4" s="12" t="n">
         <f aca="true">MEDIAN(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
-        <v>#VALUE!</v>
+        <v>76.6</v>
       </c>
       <c r="K4" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46065</v>
+        <v>46067</v>
       </c>
       <c r="L4" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>77.8</v>
+        <v>76.6</v>
       </c>
       <c r="M4" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.36</v>
+        <v>76.66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1986,26 +2002,26 @@
       </c>
       <c r="G5" s="7" t="n">
         <f aca="false">AVERAGE(B4:B10)</f>
-        <v>76.7666666666667</v>
+        <v>76.66</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="12" t="e">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="n">
         <f aca="true">AVERAGE(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
-        <v>#VALUE!</v>
+        <v>77.1142857142857</v>
       </c>
       <c r="K5" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46066</v>
+        <v>46068</v>
       </c>
       <c r="L5" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>77.1</v>
+        <v>76.6</v>
       </c>
       <c r="M5" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.025</v>
+        <v>76.55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,38 +2049,40 @@
       </c>
       <c r="G6" s="7" t="n">
         <f aca="false">AVERAGE(B5:B11)</f>
-        <v>76.6</v>
+        <v>76.55</v>
       </c>
       <c r="H6" s="6"/>
       <c r="K6" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46067</v>
+        <v>46069</v>
       </c>
       <c r="L6" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="M6" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.7666666666667</v>
+        <v>76.5333333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>46069</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="n">
+        <v>76.5</v>
+      </c>
       <c r="C7" s="11" t="n">
         <f aca="false">B7-B6</f>
-        <v>-76.6</v>
+        <v>-0.0999999999999943</v>
       </c>
       <c r="D7" s="3" t="n">
         <f aca="false">B7*2.204623</f>
-        <v>0</v>
+        <v>168.6536595</v>
       </c>
       <c r="E7" s="7" t="n">
         <f aca="false">C7*2.204623</f>
-        <v>-168.8741218</v>
+        <v>-0.220462299999987</v>
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">A7</f>
@@ -2072,34 +2090,41 @@
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">AVERAGE(B6:B12)</f>
-        <v>76.6</v>
-      </c>
-      <c r="H7" s="6"/>
+        <v>76.5333333333333</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>70</v>
+      </c>
       <c r="K7" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46068</v>
+        <v>46070</v>
       </c>
       <c r="L7" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="M7" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>46070</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="n">
+        <v>76.5</v>
+      </c>
       <c r="C8" s="11" t="n">
         <f aca="false">B8-B7</f>
         <v>0</v>
       </c>
       <c r="D8" s="3" t="n">
         <f aca="false">B8*2.204623</f>
-        <v>0</v>
+        <v>168.6536595</v>
       </c>
       <c r="E8" s="7" t="n">
         <f aca="false">C8*2.204623</f>
@@ -2109,9 +2134,9 @@
         <f aca="false">A8</f>
         <v>46070</v>
       </c>
-      <c r="G8" s="7" t="e">
+      <c r="G8" s="7" t="n">
         <f aca="false">AVERAGE(B7:B13)</f>
-        <v>#DIV/0!</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,7 +2146,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="11" t="n">
         <f aca="false">B9-B8</f>
-        <v>0</v>
+        <v>-76.5</v>
       </c>
       <c r="D9" s="3" t="n">
         <f aca="false">B9*2.204623</f>
@@ -2129,15 +2154,21 @@
       </c>
       <c r="E9" s="7" t="n">
         <f aca="false">C9*2.204623</f>
-        <v>0</v>
+        <v>-168.6536595</v>
       </c>
       <c r="F9" s="4" t="n">
         <f aca="false">A9</f>
         <v>46071</v>
       </c>
-      <c r="G9" s="7" t="e">
+      <c r="G9" s="7" t="n">
         <f aca="false">AVERAGE(B8:B14)</f>
-        <v>#DIV/0!</v>
+        <v>76.5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,6 +2195,13 @@
       <c r="G10" s="7" t="e">
         <f aca="false">AVERAGE(B9:B15)</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <f aca="false">((I5 - I7) * 7000) / I9</f>
+        <v>49.8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,7 +3538,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I6" s="3" t="n">
         <f aca="false">I5-I8</f>
@@ -3547,7 +3585,7 @@
         <v>85.8571428571429</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I7" s="3" t="n">
         <f aca="false">102-I5</f>
@@ -3594,7 +3632,7 @@
         <v>85.7857142857143</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>75</v>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t xml:space="preserve">7 day average</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">target kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refeed</t>
   </si>
   <si>
     <t xml:space="preserve">DAILY CALORIE DEFICIT</t>
@@ -311,9 +314,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0821784020091154"/>
-          <c:y val="0.0666570584420264"/>
-          <c:w val="0.705655287880197"/>
-          <c:h val="0.858975282842113"/>
+          <c:y val="0.0666618622081291"/>
+          <c:w val="0.705608780578551"/>
+          <c:h val="0.858893052752955"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -399,25 +402,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Wednesday</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>Thursday</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Friday</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Saturday</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sunday</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monday</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Tuesday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -429,25 +432,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>78.7</c:v>
+                  <c:v>77.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.8</c:v>
+                  <c:v>76.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.1</c:v>
+                  <c:v>76.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.6</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.6</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.5</c:v>
+                  <c:v>76.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.5</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,25 +537,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Wednesday</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>Thursday</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Friday</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Saturday</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sunday</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monday</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Tuesday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -564,25 +567,25 @@
                 <c:formatCode>[BLUE]0.00;[RED]\-0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>77.5142857142857</c:v>
+                  <c:v>76.7714285714286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.1142857142857</c:v>
+                  <c:v>76.8714285714286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.85</c:v>
+                  <c:v>76.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.66</c:v>
+                  <c:v>76.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.55</c:v>
+                  <c:v>76.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.5333333333333</c:v>
+                  <c:v>77.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.5</c:v>
+                  <c:v>77.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,11 +600,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="7504349"/>
-        <c:axId val="23834408"/>
+        <c:axId val="17429679"/>
+        <c:axId val="68011853"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7504349"/>
+        <c:axId val="17429679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,7 +637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23834408"/>
+        <c:crossAx val="68011853"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -642,7 +645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23834408"/>
+        <c:axId val="68011853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +687,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7504349"/>
+        <c:crossAx val="17429679"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -759,10 +762,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821318947074691"/>
-          <c:y val="0.0666570584420264"/>
-          <c:w val="0.705655287880197"/>
-          <c:h val="0.858975282842113"/>
+          <c:x val="0.0821357146179248"/>
+          <c:y val="0.0666618622081291"/>
+          <c:w val="0.705641598065206"/>
+          <c:h val="0.858893052752955"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1024,11 +1027,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="69362952"/>
-        <c:axId val="50358998"/>
+        <c:axId val="66066159"/>
+        <c:axId val="47259307"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69362952"/>
+        <c:axId val="66066159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1064,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50358998"/>
+        <c:crossAx val="47259307"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1069,7 +1072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50358998"/>
+        <c:axId val="47259307"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1114,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69362952"/>
+        <c:crossAx val="66066159"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1614,16 +1617,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>712800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>394560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>687600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>183600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1631,8 +1634,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9968040" y="1676520"/>
-        <a:ext cx="7740360" cy="4995360"/>
+        <a:off x="11475360" y="2618280"/>
+        <a:ext cx="7740360" cy="4995000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1656,9 +1659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:colOff>74520</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1667,7 +1670,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7740360" cy="4995360"/>
+        <a:ext cx="7740000" cy="4995000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1794,7 +1797,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1806,8 +1809,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="13.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="13.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="13.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="12" style="1" width="13.21"/>
   </cols>
@@ -1839,15 +1842,15 @@
       </c>
       <c r="K1" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46064</v>
+        <v>46066</v>
       </c>
       <c r="L1" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.7</v>
+        <v>77.1</v>
       </c>
       <c r="M1" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.5142857142857</v>
+        <v>76.7714285714286</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,15 +1882,15 @@
       </c>
       <c r="K2" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46065</v>
+        <v>46067</v>
       </c>
       <c r="L2" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>77.8</v>
+        <v>76.6</v>
       </c>
       <c r="M2" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.1142857142857</v>
+        <v>76.8714285714286</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,15 +1922,15 @@
       </c>
       <c r="K3" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46066</v>
+        <v>46068</v>
       </c>
       <c r="L3" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>77.1</v>
+        <v>76.6</v>
       </c>
       <c r="M3" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.85</v>
+        <v>76.8333333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,7 +1958,7 @@
       </c>
       <c r="G4" s="7" t="n">
         <f aca="false">AVERAGE(B3:B9)</f>
-        <v>76.85</v>
+        <v>76.7714285714286</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -1966,15 +1969,15 @@
       </c>
       <c r="K4" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46067</v>
+        <v>46069</v>
       </c>
       <c r="L4" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="M4" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.66</v>
+        <v>76.88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2002,26 +2005,26 @@
       </c>
       <c r="G5" s="7" t="n">
         <f aca="false">AVERAGE(B4:B10)</f>
-        <v>76.66</v>
+        <v>76.8714285714286</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="12" t="n">
         <f aca="true">AVERAGE(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
-        <v>77.1142857142857</v>
+        <v>76.8714285714286</v>
       </c>
       <c r="K5" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46068</v>
+        <v>46070</v>
       </c>
       <c r="L5" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="M5" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.55</v>
+        <v>76.95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,20 +2052,20 @@
       </c>
       <c r="G6" s="7" t="n">
         <f aca="false">AVERAGE(B5:B11)</f>
-        <v>76.55</v>
+        <v>76.8333333333333</v>
       </c>
       <c r="H6" s="6"/>
       <c r="K6" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46069</v>
+        <v>46071</v>
       </c>
       <c r="L6" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="M6" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.5333333333333</v>
+        <v>77.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,7 +2093,7 @@
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">AVERAGE(B6:B12)</f>
-        <v>76.5333333333333</v>
+        <v>76.88</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>4</v>
@@ -2100,15 +2103,15 @@
       </c>
       <c r="K7" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="L7" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.5</v>
+        <v>78.5</v>
       </c>
       <c r="M7" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.5</v>
+        <v>77.4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2136,25 +2139,27 @@
       </c>
       <c r="G8" s="7" t="n">
         <f aca="false">AVERAGE(B7:B13)</f>
-        <v>76.5</v>
+        <v>76.95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>46071</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="n">
+        <v>76.3</v>
+      </c>
       <c r="C9" s="11" t="n">
         <f aca="false">B9-B8</f>
-        <v>-76.5</v>
+        <v>-0.200000000000003</v>
       </c>
       <c r="D9" s="3" t="n">
         <f aca="false">B9*2.204623</f>
-        <v>0</v>
+        <v>168.2127349</v>
       </c>
       <c r="E9" s="7" t="n">
         <f aca="false">C9*2.204623</f>
-        <v>-168.6536595</v>
+        <v>-0.440924600000006</v>
       </c>
       <c r="F9" s="4" t="n">
         <f aca="false">A9</f>
@@ -2162,12 +2167,15 @@
       </c>
       <c r="G9" s="7" t="n">
         <f aca="false">AVERAGE(B8:B14)</f>
-        <v>76.5</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>77.1</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -2175,33 +2183,38 @@
       <c r="A10" s="5" t="n">
         <v>46072</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="n">
+        <v>78.5</v>
+      </c>
       <c r="C10" s="11" t="n">
         <f aca="false">B10-B9</f>
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="D10" s="3" t="n">
         <f aca="false">B10*2.204623</f>
-        <v>0</v>
+        <v>173.0629055</v>
       </c>
       <c r="E10" s="7" t="n">
         <f aca="false">C10*2.204623</f>
-        <v>0</v>
+        <v>4.85017060000001</v>
       </c>
       <c r="F10" s="4" t="n">
         <f aca="false">A10</f>
         <v>46072</v>
       </c>
-      <c r="G10" s="7" t="e">
+      <c r="G10" s="7" t="n">
         <f aca="false">AVERAGE(B9:B15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <f aca="false">((I5 - I7) * 7000) / I9</f>
-        <v>49.8</v>
+        <v>77.4</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <f aca="false">((I5 - I7) * 7000) / J9</f>
+        <v>48.1000000000001</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,7 +2223,7 @@
       </c>
       <c r="C11" s="11" t="n">
         <f aca="false">B11-B10</f>
-        <v>0</v>
+        <v>-78.5</v>
       </c>
       <c r="D11" s="3" t="n">
         <f aca="false">B11*2.204623</f>
@@ -2218,15 +2231,15 @@
       </c>
       <c r="E11" s="7" t="n">
         <f aca="false">C11*2.204623</f>
-        <v>0</v>
+        <v>-173.0629055</v>
       </c>
       <c r="F11" s="4" t="n">
         <f aca="false">A11</f>
         <v>46073</v>
       </c>
-      <c r="G11" s="7" t="e">
+      <c r="G11" s="7" t="n">
         <f aca="false">AVERAGE(B10:B16)</f>
-        <v>#DIV/0!</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3538,7 +3551,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I6" s="3" t="n">
         <f aca="false">I5-I8</f>
@@ -3585,7 +3598,7 @@
         <v>85.8571428571429</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" s="3" t="n">
         <f aca="false">102-I5</f>
@@ -3632,7 +3645,7 @@
         <v>85.7857142857143</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>75</v>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t xml:space="preserve">7 day average</t>
   </si>
@@ -313,10 +313,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821784020091154"/>
-          <c:y val="0.0666618622081291"/>
-          <c:w val="0.705608780578551"/>
-          <c:h val="0.858893052752955"/>
+          <c:x val="0.0821822240826008"/>
+          <c:y val="0.0666666666666667"/>
+          <c:w val="0.70559508860053"/>
+          <c:h val="0.858810810810811"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -402,25 +402,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Friday</c:v>
+                  <c:v>Saturday</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Saturday</c:v>
+                  <c:v>Sunday</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sunday</c:v>
+                  <c:v>Monday</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Monday</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Tuesday</c:v>
+                  <c:v>Wednesday</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Wednesday</c:v>
+                  <c:v>Thursday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Thursday</c:v>
+                  <c:v>Friday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -432,25 +432,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>77.1</c:v>
+                  <c:v>76.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>76.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.6</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.5</c:v>
+                  <c:v>76.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.3</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.5</c:v>
+                  <c:v>78.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,25 +537,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Friday</c:v>
+                  <c:v>Saturday</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Saturday</c:v>
+                  <c:v>Sunday</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sunday</c:v>
+                  <c:v>Monday</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Monday</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Tuesday</c:v>
+                  <c:v>Wednesday</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Wednesday</c:v>
+                  <c:v>Thursday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Thursday</c:v>
+                  <c:v>Friday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -567,25 +567,25 @@
                 <c:formatCode>[BLUE]0.00;[RED]\-0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>76.7714285714286</c:v>
+                  <c:v>76.8714285714286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.8714285714286</c:v>
+                  <c:v>77.0428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.8333333333333</c:v>
+                  <c:v>77.1166666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.88</c:v>
+                  <c:v>77.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.95</c:v>
+                  <c:v>77.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.1</c:v>
+                  <c:v>77.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.4</c:v>
+                  <c:v>78.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,11 +600,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="17429679"/>
-        <c:axId val="68011853"/>
+        <c:axId val="22342372"/>
+        <c:axId val="23290989"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17429679"/>
+        <c:axId val="22342372"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,7 +637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68011853"/>
+        <c:crossAx val="23290989"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -645,7 +645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68011853"/>
+        <c:axId val="23290989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +687,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17429679"/>
+        <c:crossAx val="22342372"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -762,10 +762,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821357146179248"/>
-          <c:y val="0.0666618622081291"/>
-          <c:w val="0.705641598065206"/>
-          <c:h val="0.858893052752955"/>
+          <c:x val="0.0821395348837209"/>
+          <c:y val="0.0666666666666667"/>
+          <c:w val="0.705627906976744"/>
+          <c:h val="0.858810810810811"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1027,11 +1027,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="66066159"/>
-        <c:axId val="47259307"/>
+        <c:axId val="22356676"/>
+        <c:axId val="12343784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66066159"/>
+        <c:axId val="22356676"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1064,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47259307"/>
+        <c:crossAx val="12343784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1072,7 +1072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47259307"/>
+        <c:axId val="12343784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1114,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66066159"/>
+        <c:crossAx val="22356676"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1624,9 +1624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>687600</xdr:colOff>
+      <xdr:colOff>687240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1635,7 +1635,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11475360" y="2618280"/>
-        <a:ext cx="7740360" cy="4995000"/>
+        <a:ext cx="7740000" cy="4994640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1659,9 +1659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>74160</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1670,7 +1670,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7740000" cy="4995000"/>
+        <a:ext cx="7739640" cy="4994640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1797,7 +1797,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1842,15 +1842,15 @@
       </c>
       <c r="K1" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="L1" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>77.1</v>
+        <v>76.6</v>
       </c>
       <c r="M1" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.7714285714286</v>
+        <v>76.8714285714286</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="K2" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="L2" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="M2" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.8714285714286</v>
+        <v>77.0428571428571</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,15 +1922,15 @@
       </c>
       <c r="K3" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="L3" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="M3" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.8333333333333</v>
+        <v>77.1166666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="K4" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46069</v>
+        <v>46070</v>
       </c>
       <c r="L4" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="M4" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.88</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,19 +2012,19 @@
       </c>
       <c r="I5" s="12" t="n">
         <f aca="true">AVERAGE(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
-        <v>76.8714285714286</v>
+        <v>77.0428571428571</v>
       </c>
       <c r="K5" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="L5" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="M5" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.95</v>
+        <v>77.4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,20 +2052,20 @@
       </c>
       <c r="G6" s="7" t="n">
         <f aca="false">AVERAGE(B5:B11)</f>
-        <v>76.8333333333333</v>
+        <v>77.0428571428571</v>
       </c>
       <c r="H6" s="6"/>
       <c r="K6" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="L6" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.3</v>
+        <v>78.5</v>
       </c>
       <c r="M6" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.1</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">AVERAGE(B6:B12)</f>
-        <v>76.88</v>
+        <v>77.1166666666667</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>4</v>
@@ -2103,15 +2103,15 @@
       </c>
       <c r="K7" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="L7" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="M7" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.4</v>
+        <v>78.4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G8" s="7" t="n">
         <f aca="false">AVERAGE(B7:B13)</f>
-        <v>76.95</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,9 +2167,9 @@
       </c>
       <c r="G9" s="7" t="n">
         <f aca="false">AVERAGE(B8:B14)</f>
-        <v>77.1</v>
-      </c>
-      <c r="H9" s="0" t="s">
+        <v>77.4</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -2204,9 +2204,9 @@
       </c>
       <c r="G10" s="7" t="n">
         <f aca="false">AVERAGE(B9:B15)</f>
-        <v>77.4</v>
-      </c>
-      <c r="H10" s="0" t="s">
+        <v>77.7</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -2214,24 +2214,27 @@
       </c>
       <c r="J10" s="3" t="n">
         <f aca="false">((I5 - I7) * 7000) / J9</f>
-        <v>48.1000000000001</v>
+        <v>49.2999999999999</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>46073</v>
       </c>
+      <c r="B11" s="1" t="n">
+        <v>78.3</v>
+      </c>
       <c r="C11" s="11" t="n">
         <f aca="false">B11-B10</f>
-        <v>-78.5</v>
+        <v>-0.200000000000003</v>
       </c>
       <c r="D11" s="3" t="n">
         <f aca="false">B11*2.204623</f>
-        <v>0</v>
+        <v>172.6219809</v>
       </c>
       <c r="E11" s="7" t="n">
         <f aca="false">C11*2.204623</f>
-        <v>-173.0629055</v>
+        <v>-0.440924600000006</v>
       </c>
       <c r="F11" s="4" t="n">
         <f aca="false">A11</f>
@@ -2239,7 +2242,10 @@
       </c>
       <c r="G11" s="7" t="n">
         <f aca="false">AVERAGE(B10:B16)</f>
-        <v>78.5</v>
+        <v>78.4</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,7 +2254,7 @@
       </c>
       <c r="C12" s="11" t="n">
         <f aca="false">B12-B11</f>
-        <v>0</v>
+        <v>-78.3</v>
       </c>
       <c r="D12" s="3" t="n">
         <f aca="false">B12*2.204623</f>
@@ -2256,15 +2262,15 @@
       </c>
       <c r="E12" s="7" t="n">
         <f aca="false">C12*2.204623</f>
-        <v>0</v>
+        <v>-172.6219809</v>
       </c>
       <c r="F12" s="4" t="n">
         <f aca="false">A12</f>
         <v>46074</v>
       </c>
-      <c r="G12" s="7" t="e">
+      <c r="G12" s="7" t="n">
         <f aca="false">AVERAGE(B11:B17)</f>
-        <v>#DIV/0!</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t xml:space="preserve">7 day average</t>
   </si>
@@ -313,10 +313,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821822240826008"/>
-          <c:y val="0.0666666666666667"/>
-          <c:w val="0.70559508860053"/>
-          <c:h val="0.858810810810811"/>
+          <c:x val="0.0821860465116279"/>
+          <c:y val="0.0666714718177887"/>
+          <c:w val="0.705581395348837"/>
+          <c:h val="0.858728557013118"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -402,25 +402,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Saturday</c:v>
+                  <c:v>Sunday</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sunday</c:v>
+                  <c:v>Monday</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Monday</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Tuesday</c:v>
+                  <c:v>Wednesday</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Wednesday</c:v>
+                  <c:v>Thursday</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Thursday</c:v>
+                  <c:v>Friday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Friday</c:v>
+                  <c:v>Saturday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -435,22 +435,22 @@
                   <c:v>76.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.6</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.5</c:v>
+                  <c:v>76.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.3</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.5</c:v>
+                  <c:v>78.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.3</c:v>
+                  <c:v>78.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,25 +537,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Saturday</c:v>
+                  <c:v>Sunday</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sunday</c:v>
+                  <c:v>Monday</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Monday</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Tuesday</c:v>
+                  <c:v>Wednesday</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Wednesday</c:v>
+                  <c:v>Thursday</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Thursday</c:v>
+                  <c:v>Friday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Friday</c:v>
+                  <c:v>Saturday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -567,25 +567,25 @@
                 <c:formatCode>[BLUE]0.00;[RED]\-0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>76.8714285714286</c:v>
+                  <c:v>77.0428571428571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.0428571428571</c:v>
+                  <c:v>77.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.1166666666667</c:v>
+                  <c:v>77.4166666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.22</c:v>
+                  <c:v>77.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.4</c:v>
+                  <c:v>77.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.7</c:v>
+                  <c:v>78.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.4</c:v>
+                  <c:v>78.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,11 +600,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="22342372"/>
-        <c:axId val="23290989"/>
+        <c:axId val="51855949"/>
+        <c:axId val="68567502"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22342372"/>
+        <c:axId val="51855949"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,7 +637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23290989"/>
+        <c:crossAx val="68567502"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -645,7 +645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23290989"/>
+        <c:axId val="68567502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +687,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22342372"/>
+        <c:crossAx val="51855949"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -762,10 +762,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821395348837209"/>
-          <c:y val="0.0666666666666667"/>
-          <c:w val="0.705627906976744"/>
-          <c:h val="0.858810810810811"/>
+          <c:x val="0.0821433555049072"/>
+          <c:y val="0.0666714718177887"/>
+          <c:w val="0.705614214614633"/>
+          <c:h val="0.858728557013118"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1027,11 +1027,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="22356676"/>
-        <c:axId val="12343784"/>
+        <c:axId val="49824734"/>
+        <c:axId val="61432726"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22356676"/>
+        <c:axId val="49824734"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1064,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12343784"/>
+        <c:crossAx val="61432726"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1072,7 +1072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12343784"/>
+        <c:axId val="61432726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1114,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22356676"/>
+        <c:crossAx val="49824734"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1624,9 +1624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>687240</xdr:colOff>
+      <xdr:colOff>686880</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1635,7 +1635,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11475360" y="2618280"/>
-        <a:ext cx="7740000" cy="4994640"/>
+        <a:ext cx="7739640" cy="4994280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1659,9 +1659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>73800</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1670,7 +1670,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7739640" cy="4994640"/>
+        <a:ext cx="7739280" cy="4994280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1796,8 +1796,8 @@
   </sheetPr>
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="K1" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="L1" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="M1" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.8714285714286</v>
+        <v>77.0428571428571</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,15 +1882,15 @@
       </c>
       <c r="K2" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="L2" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="M2" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.0428571428571</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="K3" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46069</v>
+        <v>46070</v>
       </c>
       <c r="L3" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="M3" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.1166666666667</v>
+        <v>77.4166666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,15 +1969,15 @@
       </c>
       <c r="K4" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="L4" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="M4" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.22</v>
+        <v>77.6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,19 +2012,19 @@
       </c>
       <c r="I5" s="12" t="n">
         <f aca="true">AVERAGE(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
-        <v>77.0428571428571</v>
+        <v>77.3</v>
       </c>
       <c r="K5" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="L5" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.3</v>
+        <v>78.5</v>
       </c>
       <c r="M5" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.4</v>
+        <v>77.875</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,15 +2057,15 @@
       <c r="H6" s="6"/>
       <c r="K6" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="L6" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="M6" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.7</v>
+        <v>78.4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">AVERAGE(B6:B12)</f>
-        <v>77.1166666666667</v>
+        <v>77.3</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>4</v>
@@ -2103,15 +2103,15 @@
       </c>
       <c r="K7" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="L7" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="M7" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>78.4</v>
+        <v>78.35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G8" s="7" t="n">
         <f aca="false">AVERAGE(B7:B13)</f>
-        <v>77.22</v>
+        <v>77.4166666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="G9" s="7" t="n">
         <f aca="false">AVERAGE(B8:B14)</f>
-        <v>77.4</v>
+        <v>77.6</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>5</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="G10" s="7" t="n">
         <f aca="false">AVERAGE(B9:B15)</f>
-        <v>77.7</v>
+        <v>77.875</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>5</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="J10" s="3" t="n">
         <f aca="false">((I5 - I7) * 7000) / J9</f>
-        <v>49.2999999999999</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,17 +2252,20 @@
       <c r="A12" s="5" t="n">
         <v>46074</v>
       </c>
+      <c r="B12" s="1" t="n">
+        <v>78.4</v>
+      </c>
       <c r="C12" s="11" t="n">
         <f aca="false">B12-B11</f>
-        <v>-78.3</v>
+        <v>0.100000000000009</v>
       </c>
       <c r="D12" s="3" t="n">
         <f aca="false">B12*2.204623</f>
-        <v>0</v>
+        <v>172.8424432</v>
       </c>
       <c r="E12" s="7" t="n">
         <f aca="false">C12*2.204623</f>
-        <v>-172.6219809</v>
+        <v>0.220462300000019</v>
       </c>
       <c r="F12" s="4" t="n">
         <f aca="false">A12</f>
@@ -2270,7 +2273,10 @@
       </c>
       <c r="G12" s="7" t="n">
         <f aca="false">AVERAGE(B11:B17)</f>
-        <v>78.3</v>
+        <v>78.35</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,7 +2285,7 @@
       </c>
       <c r="C13" s="11" t="n">
         <f aca="false">B13-B12</f>
-        <v>0</v>
+        <v>-78.4</v>
       </c>
       <c r="D13" s="3" t="n">
         <f aca="false">B13*2.204623</f>
@@ -2287,15 +2293,15 @@
       </c>
       <c r="E13" s="7" t="n">
         <f aca="false">C13*2.204623</f>
-        <v>0</v>
+        <v>-172.8424432</v>
       </c>
       <c r="F13" s="4" t="n">
         <f aca="false">A13</f>
         <v>46075</v>
       </c>
-      <c r="G13" s="7" t="e">
+      <c r="G13" s="7" t="n">
         <f aca="false">AVERAGE(B12:B18)</f>
-        <v>#DIV/0!</v>
+        <v>78.4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -313,10 +313,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821860465116279"/>
-          <c:y val="0.0666714718177887"/>
-          <c:w val="0.705581395348837"/>
-          <c:h val="0.858728557013118"/>
+          <c:x val="0.0821898692962463"/>
+          <c:y val="0.0666762776616449"/>
+          <c:w val="0.705567700823294"/>
+          <c:h val="0.858646291357313"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -362,7 +362,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -402,25 +402,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Sunday</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>Monday</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tuesday</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Wednesday</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thursday</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Friday</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Saturday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -432,25 +432,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>76.6</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.5</c:v>
+                  <c:v>76.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.5</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.3</c:v>
+                  <c:v>78.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.5</c:v>
+                  <c:v>78.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.3</c:v>
+                  <c:v>79.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.4</c:v>
+                  <c:v>78.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,11 +473,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF420E"/>
+              <a:srgbClr val="ff420e"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="FF420E"/>
+                <a:srgbClr val="ff420e"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -487,7 +487,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF420E"/>
+                <a:srgbClr val="ff420e"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -497,7 +497,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -537,25 +537,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Sunday</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>Monday</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tuesday</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Wednesday</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thursday</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Friday</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Saturday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -567,25 +567,25 @@
                 <c:formatCode>[BLUE]0.00;[RED]\-0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>77.0428571428571</c:v>
+                  <c:v>77.6857142857143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.3</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.4166666666667</c:v>
+                  <c:v>78.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.6</c:v>
+                  <c:v>78.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.875</c:v>
+                  <c:v>78.675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.4</c:v>
+                  <c:v>78.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.35</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,11 +600,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="51855949"/>
-        <c:axId val="68567502"/>
+        <c:axId val="15224556"/>
+        <c:axId val="44270130"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51855949"/>
+        <c:axId val="15224556"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,7 +617,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -626,7 +626,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -637,7 +637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68567502"/>
+        <c:crossAx val="44270130"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -645,7 +645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68567502"/>
+        <c:axId val="44270130"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -655,7 +655,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
+                <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -667,7 +667,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -676,7 +676,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -687,7 +687,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51855949"/>
+        <c:crossAx val="15224556"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -695,7 +695,7 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
+            <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -724,7 +724,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -741,7 +741,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
@@ -762,10 +762,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821433555049072"/>
-          <c:y val="0.0666714718177887"/>
-          <c:w val="0.705614214614633"/>
-          <c:h val="0.858728557013118"/>
+          <c:x val="0.0821471764815332"/>
+          <c:y val="0.0666762776616449"/>
+          <c:w val="0.705600520978696"/>
+          <c:h val="0.858646291357313"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -800,7 +800,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -900,11 +900,11 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF420E"/>
+              <a:srgbClr val="ff420e"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="FF420E"/>
+                <a:srgbClr val="ff420e"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -914,7 +914,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF420E"/>
+                <a:srgbClr val="ff420e"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -924,7 +924,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1027,11 +1027,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="49824734"/>
-        <c:axId val="61432726"/>
+        <c:axId val="76126293"/>
+        <c:axId val="76437317"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49824734"/>
+        <c:axId val="76126293"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1044,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1053,7 +1053,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1064,7 +1064,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61432726"/>
+        <c:crossAx val="76437317"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1072,7 +1072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61432726"/>
+        <c:axId val="76437317"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1082,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
+                <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1094,7 +1094,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1103,7 +1103,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1114,7 +1114,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49824734"/>
+        <c:crossAx val="76126293"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1122,7 +1122,7 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
+            <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -1151,7 +1151,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1168,449 +1168,13 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:lineWidthScale>1</cs:lineWidthScale>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-    <a:defRPr sz="1800" b="0"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataLabel>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataPointMarkerLayout>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:lineWidthScale>1</cs:lineWidthScale>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-    <a:defRPr sz="1800" b="0"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataLabel>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataPointMarkerLayout>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor"/>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1624,9 +1188,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>686880</xdr:colOff>
+      <xdr:colOff>686520</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1635,7 +1199,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11475360" y="2618280"/>
-        <a:ext cx="7739640" cy="4994280"/>
+        <a:ext cx="7739280" cy="4993920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1659,9 +1223,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1670,7 +1234,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7739280" cy="4994280"/>
+        <a:ext cx="7738920" cy="4993920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1691,37 +1255,37 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1797,7 +1361,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1842,15 +1406,15 @@
       </c>
       <c r="K1" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46068</v>
+        <v>46070</v>
       </c>
       <c r="L1" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="M1" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.0428571428571</v>
+        <v>77.6857142857143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,15 +1446,15 @@
       </c>
       <c r="K2" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46069</v>
+        <v>46071</v>
       </c>
       <c r="L2" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="M2" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,15 +1486,15 @@
       </c>
       <c r="K3" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="L3" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.5</v>
+        <v>78.5</v>
       </c>
       <c r="M3" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.4166666666667</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1965,19 +1529,19 @@
       </c>
       <c r="I4" s="12" t="n">
         <f aca="true">MEDIAN(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
-        <v>76.6</v>
+        <v>78.4</v>
       </c>
       <c r="K4" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46071</v>
+        <v>46073</v>
       </c>
       <c r="L4" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.3</v>
+        <v>78.3</v>
       </c>
       <c r="M4" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.6</v>
+        <v>78.64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,19 +1576,19 @@
       </c>
       <c r="I5" s="12" t="n">
         <f aca="true">AVERAGE(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
-        <v>77.3</v>
+        <v>78</v>
       </c>
       <c r="K5" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46072</v>
+        <v>46074</v>
       </c>
       <c r="L5" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="M5" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.875</v>
+        <v>78.675</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,15 +1621,15 @@
       <c r="H6" s="6"/>
       <c r="K6" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46073</v>
+        <v>46075</v>
       </c>
       <c r="L6" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.3</v>
+        <v>79.3</v>
       </c>
       <c r="M6" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>78.4</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2103,15 +1667,15 @@
       </c>
       <c r="K7" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46074</v>
+        <v>46076</v>
       </c>
       <c r="L7" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.4</v>
+        <v>78.7</v>
       </c>
       <c r="M7" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>78.35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,7 +1703,7 @@
       </c>
       <c r="G8" s="7" t="n">
         <f aca="false">AVERAGE(B7:B13)</f>
-        <v>77.4166666666667</v>
+        <v>77.6857142857143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,7 +1731,7 @@
       </c>
       <c r="G9" s="7" t="n">
         <f aca="false">AVERAGE(B8:B14)</f>
-        <v>77.6</v>
+        <v>78</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>5</v>
@@ -2204,7 +1768,7 @@
       </c>
       <c r="G10" s="7" t="n">
         <f aca="false">AVERAGE(B9:B15)</f>
-        <v>77.875</v>
+        <v>78.25</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>5</v>
@@ -2214,7 +1778,7 @@
       </c>
       <c r="J10" s="3" t="n">
         <f aca="false">((I5 - I7) * 7000) / J9</f>
-        <v>51.1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2242,7 +1806,7 @@
       </c>
       <c r="G11" s="7" t="n">
         <f aca="false">AVERAGE(B10:B16)</f>
-        <v>78.4</v>
+        <v>78.64</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>5</v>
@@ -2273,7 +1837,7 @@
       </c>
       <c r="G12" s="7" t="n">
         <f aca="false">AVERAGE(B11:B17)</f>
-        <v>78.35</v>
+        <v>78.675</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>5</v>
@@ -2283,17 +1847,20 @@
       <c r="A13" s="5" t="n">
         <v>46075</v>
       </c>
+      <c r="B13" s="1" t="n">
+        <v>79.3</v>
+      </c>
       <c r="C13" s="11" t="n">
         <f aca="false">B13-B12</f>
-        <v>-78.4</v>
+        <v>0.899999999999992</v>
       </c>
       <c r="D13" s="3" t="n">
         <f aca="false">B13*2.204623</f>
-        <v>0</v>
+        <v>174.8266039</v>
       </c>
       <c r="E13" s="7" t="n">
         <f aca="false">C13*2.204623</f>
-        <v>-172.8424432</v>
+        <v>1.98416069999998</v>
       </c>
       <c r="F13" s="4" t="n">
         <f aca="false">A13</f>
@@ -2301,32 +1868,35 @@
       </c>
       <c r="G13" s="7" t="n">
         <f aca="false">AVERAGE(B12:B18)</f>
-        <v>78.4</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>46076</v>
       </c>
+      <c r="B14" s="1" t="n">
+        <v>78.7</v>
+      </c>
       <c r="C14" s="11" t="n">
         <f aca="false">B14-B13</f>
-        <v>0</v>
+        <v>-0.599999999999994</v>
       </c>
       <c r="D14" s="3" t="n">
         <f aca="false">B14*2.204623</f>
-        <v>0</v>
+        <v>173.5038301</v>
       </c>
       <c r="E14" s="7" t="n">
         <f aca="false">C14*2.204623</f>
-        <v>0</v>
+        <v>-1.32277379999999</v>
       </c>
       <c r="F14" s="4" t="n">
         <f aca="false">A14</f>
         <v>46076</v>
       </c>
-      <c r="G14" s="7" t="e">
+      <c r="G14" s="7" t="n">
         <f aca="false">AVERAGE(B13:B19)</f>
-        <v>#DIV/0!</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,7 +1905,7 @@
       </c>
       <c r="C15" s="11" t="n">
         <f aca="false">B15-B14</f>
-        <v>0</v>
+        <v>-78.7</v>
       </c>
       <c r="D15" s="3" t="n">
         <f aca="false">B15*2.204623</f>
@@ -2343,15 +1913,15 @@
       </c>
       <c r="E15" s="7" t="n">
         <f aca="false">C15*2.204623</f>
-        <v>0</v>
+        <v>-173.5038301</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">A15</f>
         <v>46077</v>
       </c>
-      <c r="G15" s="7" t="e">
+      <c r="G15" s="7" t="n">
         <f aca="false">AVERAGE(B14:B20)</f>
-        <v>#DIV/0!</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -313,10 +313,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821898692962463"/>
-          <c:y val="0.0666762776616449"/>
-          <c:w val="0.705567700823294"/>
-          <c:h val="0.858646291357313"/>
+          <c:x val="0.0821975159324557"/>
+          <c:y val="0.0666858914281595"/>
+          <c:w val="0.705540307949947"/>
+          <c:h val="0.858481724461106"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -600,11 +600,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="15224556"/>
-        <c:axId val="44270130"/>
+        <c:axId val="25231476"/>
+        <c:axId val="72373743"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15224556"/>
+        <c:axId val="25231476"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,7 +637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44270130"/>
+        <c:crossAx val="72373743"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -645,7 +645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44270130"/>
+        <c:axId val="72373743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +687,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15224556"/>
+        <c:crossAx val="25231476"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -757,15 +757,283 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="21062901"/>
+        <c:axId val="76396295"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="21062901"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76396295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76396295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21062901"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821471764815332"/>
-          <c:y val="0.0666762776616449"/>
-          <c:w val="0.705600520978696"/>
-          <c:h val="0.858646291357313"/>
+          <c:x val="0.0821548195013026"/>
+          <c:y val="0.0666858914281595"/>
+          <c:w val="0.70557312988463"/>
+          <c:h val="0.858481724461106"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1027,11 +1295,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="76126293"/>
-        <c:axId val="76437317"/>
+        <c:axId val="16974629"/>
+        <c:axId val="22262760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76126293"/>
+        <c:axId val="16974629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1332,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76437317"/>
+        <c:crossAx val="22262760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1072,7 +1340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76437317"/>
+        <c:axId val="22262760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1382,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76126293"/>
+        <c:crossAx val="16974629"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1188,9 +1456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>686520</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1199,11 +1467,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11475360" y="2618280"/>
-        <a:ext cx="7739280" cy="4993920"/>
+        <a:ext cx="7738560" cy="4993200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11880</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>116280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>186120</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>126720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12023640" y="7736400"/>
+        <a:ext cx="5759640" cy="3249000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1223,18 +1521,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
+      <xdr:colOff>72720</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7738920" cy="4993920"/>
+        <a:ext cx="7738200" cy="4993200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1360,8 +1658,8 @@
   </sheetPr>
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T29" activeCellId="0" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -313,10 +313,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821975159324557"/>
-          <c:y val="0.0666858914281595"/>
-          <c:w val="0.705540307949947"/>
-          <c:h val="0.858481724461106"/>
+          <c:x val="0.0822166387493021"/>
+          <c:y val="0.0667099379777874"/>
+          <c:w val="0.705471803461753"/>
+          <c:h val="0.858070099524016"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -402,25 +402,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Tuesday</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>Wednesday</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>Thursday</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>Friday</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Saturday</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sunday</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Monday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -432,25 +432,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>78.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>78.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>78.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,25 +537,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Tuesday</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>Wednesday</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>Thursday</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>Friday</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Saturday</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sunday</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Monday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -567,25 +567,25 @@
                 <c:formatCode>[BLUE]0.00;[RED]\-0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>77.6857142857143</c:v>
+                  <c:v>78.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>77.8857142857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.25</c:v>
+                  <c:v>77.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.64</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.675</c:v>
+                  <c:v>77.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.8</c:v>
+                  <c:v>77.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79</c:v>
+                  <c:v>76.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,11 +600,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="25231476"/>
-        <c:axId val="72373743"/>
+        <c:axId val="33320361"/>
+        <c:axId val="10013068"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25231476"/>
+        <c:axId val="33320361"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,7 +637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72373743"/>
+        <c:crossAx val="10013068"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -645,7 +645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72373743"/>
+        <c:axId val="10013068"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +687,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25231476"/>
+        <c:crossAx val="33320361"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -757,283 +757,15 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFillTx/>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="28800">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>79.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>77.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>76.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>76.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>78.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>78.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>79.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>78.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="21062901"/>
-        <c:axId val="76396295"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="21062901"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="76396295"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="76396295"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="21062901"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="DejaVu Sans"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821548195013026"/>
-          <c:y val="0.0666858914281595"/>
-          <c:w val="0.70557312988463"/>
-          <c:h val="0.858481724461106"/>
+          <c:x val="0.0821739332743939"/>
+          <c:y val="0.0667099379777874"/>
+          <c:w val="0.705504629845052"/>
+          <c:h val="0.858070099524016"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1295,11 +1027,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="16974629"/>
-        <c:axId val="22262760"/>
+        <c:axId val="85234386"/>
+        <c:axId val="36221079"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="16974629"/>
+        <c:axId val="85234386"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1064,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22262760"/>
+        <c:crossAx val="36221079"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1340,7 +1072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22262760"/>
+        <c:axId val="36221079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1114,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16974629"/>
+        <c:crossAx val="85234386"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1456,9 +1188,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>684000</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1467,41 +1199,11 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11475360" y="2618280"/>
-        <a:ext cx="7738560" cy="4993200"/>
+        <a:ext cx="7736760" cy="4991400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11880</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="12023640" y="7736400"/>
-        <a:ext cx="5759640" cy="3249000"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1521,18 +1223,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
+      <xdr:colOff>70920</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="2" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7738200" cy="4993200"/>
+        <a:ext cx="7736400" cy="4991400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1659,7 +1361,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T29" activeCellId="0" sqref="T29"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1704,15 +1406,15 @@
       </c>
       <c r="K1" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46070</v>
+        <v>46074</v>
       </c>
       <c r="L1" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.5</v>
+        <v>78.4</v>
       </c>
       <c r="M1" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.6857142857143</v>
+        <v>78.1428571428571</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,15 +1446,15 @@
       </c>
       <c r="K2" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46071</v>
+        <v>46075</v>
       </c>
       <c r="L2" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.3</v>
+        <v>79.3</v>
       </c>
       <c r="M2" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>78</v>
+        <v>77.8857142857143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,15 +1486,15 @@
       </c>
       <c r="K3" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="L3" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="M3" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>78.25</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,19 +1529,19 @@
       </c>
       <c r="I4" s="12" t="n">
         <f aca="true">MEDIAN(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
-        <v>78.4</v>
+        <v>77.7</v>
       </c>
       <c r="K4" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46073</v>
+        <v>46077</v>
       </c>
       <c r="L4" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.3</v>
+        <v>77.7</v>
       </c>
       <c r="M4" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>78.64</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,19 +1576,19 @@
       </c>
       <c r="I5" s="12" t="n">
         <f aca="true">AVERAGE(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
-        <v>78</v>
+        <v>77.8857142857143</v>
       </c>
       <c r="K5" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46074</v>
+        <v>46078</v>
       </c>
       <c r="L5" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.4</v>
+        <v>77.5</v>
       </c>
       <c r="M5" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>78.675</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,15 +1621,15 @@
       <c r="H6" s="6"/>
       <c r="K6" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46075</v>
+        <v>46079</v>
       </c>
       <c r="L6" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>79.3</v>
+        <v>77.1</v>
       </c>
       <c r="M6" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>78.8</v>
+        <v>77.0333333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1965,15 +1667,15 @@
       </c>
       <c r="K7" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46076</v>
+        <v>46080</v>
       </c>
       <c r="L7" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.7</v>
+        <v>76.5</v>
       </c>
       <c r="M7" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>79</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,7 +1768,7 @@
       </c>
       <c r="G10" s="7" t="n">
         <f aca="false">AVERAGE(B9:B15)</f>
-        <v>78.25</v>
+        <v>78.1714285714286</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>5</v>
@@ -2076,7 +1778,7 @@
       </c>
       <c r="J10" s="3" t="n">
         <f aca="false">((I5 - I7) * 7000) / J9</f>
-        <v>56</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2104,7 +1806,7 @@
       </c>
       <c r="G11" s="7" t="n">
         <f aca="false">AVERAGE(B10:B16)</f>
-        <v>78.64</v>
+        <v>78.3428571428571</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>5</v>
@@ -2135,7 +1837,7 @@
       </c>
       <c r="G12" s="7" t="n">
         <f aca="false">AVERAGE(B11:B17)</f>
-        <v>78.675</v>
+        <v>78.1428571428571</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>5</v>
@@ -2166,7 +1868,7 @@
       </c>
       <c r="G13" s="7" t="n">
         <f aca="false">AVERAGE(B12:B18)</f>
-        <v>78.8</v>
+        <v>77.8857142857143</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,24 +1896,27 @@
       </c>
       <c r="G14" s="7" t="n">
         <f aca="false">AVERAGE(B13:B19)</f>
-        <v>79</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>46077</v>
       </c>
+      <c r="B15" s="1" t="n">
+        <v>77.7</v>
+      </c>
       <c r="C15" s="11" t="n">
         <f aca="false">B15-B14</f>
-        <v>-78.7</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="3" t="n">
         <f aca="false">B15*2.204623</f>
-        <v>0</v>
+        <v>171.2992071</v>
       </c>
       <c r="E15" s="7" t="n">
         <f aca="false">C15*2.204623</f>
-        <v>-173.5038301</v>
+        <v>-2.204623</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">A15</f>
@@ -2219,82 +1924,91 @@
       </c>
       <c r="G15" s="7" t="n">
         <f aca="false">AVERAGE(B14:B20)</f>
-        <v>78.7</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>46078</v>
       </c>
+      <c r="B16" s="1" t="n">
+        <v>77.5</v>
+      </c>
       <c r="C16" s="11" t="n">
         <f aca="false">B16-B15</f>
-        <v>0</v>
+        <v>-0.200000000000003</v>
       </c>
       <c r="D16" s="3" t="n">
         <f aca="false">B16*2.204623</f>
-        <v>0</v>
+        <v>170.8582825</v>
       </c>
       <c r="E16" s="7" t="n">
         <f aca="false">C16*2.204623</f>
-        <v>0</v>
+        <v>-0.440924600000006</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">A16</f>
         <v>46078</v>
       </c>
-      <c r="G16" s="7" t="e">
+      <c r="G16" s="7" t="n">
         <f aca="false">AVERAGE(B15:B21)</f>
-        <v>#DIV/0!</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>46079</v>
       </c>
+      <c r="B17" s="1" t="n">
+        <v>77.1</v>
+      </c>
       <c r="C17" s="11" t="n">
         <f aca="false">B17-B16</f>
-        <v>0</v>
+        <v>-0.400000000000006</v>
       </c>
       <c r="D17" s="3" t="n">
         <f aca="false">B17*2.204623</f>
-        <v>0</v>
+        <v>169.9764333</v>
       </c>
       <c r="E17" s="7" t="n">
         <f aca="false">C17*2.204623</f>
-        <v>0</v>
+        <v>-0.881849200000013</v>
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">A17</f>
         <v>46079</v>
       </c>
-      <c r="G17" s="7" t="e">
+      <c r="G17" s="7" t="n">
         <f aca="false">AVERAGE(B16:B22)</f>
-        <v>#DIV/0!</v>
+        <v>77.0333333333333</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>46080</v>
       </c>
+      <c r="B18" s="1" t="n">
+        <v>76.5</v>
+      </c>
       <c r="C18" s="11" t="n">
         <f aca="false">B18-B17</f>
-        <v>0</v>
+        <v>-0.599999999999994</v>
       </c>
       <c r="D18" s="3" t="n">
         <f aca="false">B18*2.204623</f>
-        <v>0</v>
+        <v>168.6536595</v>
       </c>
       <c r="E18" s="7" t="n">
         <f aca="false">C18*2.204623</f>
-        <v>0</v>
+        <v>-1.32277379999999</v>
       </c>
       <c r="F18" s="4" t="n">
         <f aca="false">A18</f>
         <v>46080</v>
       </c>
-      <c r="G18" s="7" t="e">
+      <c r="G18" s="7" t="n">
         <f aca="false">AVERAGE(B17:B23)</f>
-        <v>#DIV/0!</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,7 +2017,7 @@
       </c>
       <c r="C19" s="11" t="n">
         <f aca="false">B19-B18</f>
-        <v>0</v>
+        <v>-76.5</v>
       </c>
       <c r="D19" s="3" t="n">
         <f aca="false">B19*2.204623</f>
@@ -2311,15 +2025,15 @@
       </c>
       <c r="E19" s="7" t="n">
         <f aca="false">C19*2.204623</f>
-        <v>0</v>
+        <v>-168.6536595</v>
       </c>
       <c r="F19" s="4" t="n">
         <f aca="false">A19</f>
         <v>46081</v>
       </c>
-      <c r="G19" s="7" t="e">
+      <c r="G19" s="7" t="n">
         <f aca="false">AVERAGE(B18:B24)</f>
-        <v>#DIV/0!</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,6 +2894,28 @@
     <oddFooter>&amp;C&amp;"Sans,Regular"&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup xr2:uid="{EBD9D27C-ED44-46A8-98A4-00512C89C34D}">
+          <x14:colorSeries rgb="FF2A6099"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FFFF0000"/>
+          <x14:colorMarkers rgb="FFFF0000"/>
+          <x14:colorFirst rgb="FFFF0000"/>
+          <x14:colorLast rgb="FFFF0000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!B1:B1048576</xm:f>
+              <xm:sqref>A1</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t xml:space="preserve">7 day average</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">remaining rfl ~days:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refeed on this day</t>
   </si>
   <si>
     <t xml:space="preserve">LEFT</t>
@@ -313,10 +316,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0822166387493021"/>
-          <c:y val="0.0667099379777874"/>
-          <c:w val="0.705471803461753"/>
-          <c:h val="0.858070099524016"/>
+          <c:x val="0.0822242903676129"/>
+          <c:y val="0.0667195614541258"/>
+          <c:w val="0.70544439274081"/>
+          <c:h val="0.857905366416619"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -362,7 +365,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -402,25 +405,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Saturday</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>Sunday</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Monday</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Tuesday</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Wednesday</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Thursday</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Friday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -432,25 +435,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>78.4</c:v>
+                  <c:v>78.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.3</c:v>
+                  <c:v>77.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.7</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.7</c:v>
+                  <c:v>77.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.5</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.1</c:v>
+                  <c:v>76.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.5</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,11 +476,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="FF420E"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -487,7 +490,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -497,7 +500,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -537,25 +540,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Saturday</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>Sunday</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Monday</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Tuesday</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Wednesday</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Thursday</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Friday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -567,25 +570,25 @@
                 <c:formatCode>[BLUE]0.00;[RED]\-0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>78.1428571428571</c:v>
+                  <c:v>77.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.8857142857143</c:v>
+                  <c:v>77.3428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.8</c:v>
+                  <c:v>77.1166666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.5</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.2</c:v>
+                  <c:v>76.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.0333333333333</c:v>
+                  <c:v>76.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.8</c:v>
+                  <c:v>76.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,11 +603,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="33320361"/>
-        <c:axId val="10013068"/>
+        <c:axId val="54929865"/>
+        <c:axId val="85379013"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33320361"/>
+        <c:axId val="54929865"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,7 +620,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -626,7 +629,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -637,7 +640,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10013068"/>
+        <c:crossAx val="85379013"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -645,7 +648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10013068"/>
+        <c:axId val="85379013"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -655,7 +658,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -667,7 +670,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -676,7 +679,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -687,7 +690,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33320361"/>
+        <c:crossAx val="54929865"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -695,7 +698,7 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -724,7 +727,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+            <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -741,7 +744,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
@@ -762,10 +765,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0821739332743939"/>
-          <c:y val="0.0667099379777874"/>
-          <c:w val="0.705504629845052"/>
-          <c:h val="0.858070099524016"/>
+          <c:x val="0.0821815812741403"/>
+          <c:y val="0.0667388167388167"/>
+          <c:w val="0.705477220903718"/>
+          <c:h val="0.857936507936508"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -800,7 +803,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -900,11 +903,11 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="FF420E"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -914,7 +917,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -924,7 +927,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1027,11 +1030,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="85234386"/>
-        <c:axId val="36221079"/>
+        <c:axId val="59374226"/>
+        <c:axId val="93826325"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85234386"/>
+        <c:axId val="59374226"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1047,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1053,7 +1056,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1064,7 +1067,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36221079"/>
+        <c:crossAx val="93826325"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1072,7 +1075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36221079"/>
+        <c:axId val="93826325"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1085,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1094,7 +1097,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1103,7 +1106,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1114,7 +1117,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85234386"/>
+        <c:crossAx val="59374226"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1122,7 +1125,7 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -1151,7 +1154,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+            <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1168,13 +1171,449 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:lineWidthScale>1</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+    <a:defRPr sz="1800" b="0"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointMarkerLayout>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:lineWidthScale>1</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+    <a:defRPr sz="1800" b="0"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointMarkerLayout>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor"/>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1188,9 +1627,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>684000</xdr:colOff>
+      <xdr:colOff>683280</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1199,7 +1638,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11475360" y="2618280"/>
-        <a:ext cx="7736760" cy="4991400"/>
+        <a:ext cx="7736040" cy="4990680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1223,9 +1662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>70920</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>70200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1234,7 +1673,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9101160" y="1676520"/>
-        <a:ext cx="7736400" cy="4991400"/>
+        <a:ext cx="7735680" cy="4989240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1255,37 +1694,37 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1361,7 +1800,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1406,15 +1845,15 @@
       </c>
       <c r="K1" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46074</v>
+        <v>46076</v>
       </c>
       <c r="L1" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.4</v>
+        <v>78.7</v>
       </c>
       <c r="M1" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>78.1428571428571</v>
+        <v>77.6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1446,15 +1885,15 @@
       </c>
       <c r="K2" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46075</v>
+        <v>46077</v>
       </c>
       <c r="L2" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>79.3</v>
+        <v>77.7</v>
       </c>
       <c r="M2" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.8857142857143</v>
+        <v>77.3428571428571</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,15 +1925,15 @@
       </c>
       <c r="K3" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46076</v>
+        <v>46078</v>
       </c>
       <c r="L3" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>78.7</v>
+        <v>77.5</v>
       </c>
       <c r="M3" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.8</v>
+        <v>77.1166666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,19 +1968,19 @@
       </c>
       <c r="I4" s="12" t="n">
         <f aca="true">MEDIAN(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="K4" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46077</v>
+        <v>46079</v>
       </c>
       <c r="L4" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>77.7</v>
+        <v>77.1</v>
       </c>
       <c r="M4" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,19 +2015,19 @@
       </c>
       <c r="I5" s="12" t="n">
         <f aca="true">AVERAGE(OFFSET(B1, COUNTA(B:B)-7, 0, 7))</f>
-        <v>77.8857142857143</v>
+        <v>77.3428571428571</v>
       </c>
       <c r="K5" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46078</v>
+        <v>46080</v>
       </c>
       <c r="L5" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>77.5</v>
+        <v>76.5</v>
       </c>
       <c r="M5" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.2</v>
+        <v>76.875</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,15 +2060,15 @@
       <c r="H6" s="6"/>
       <c r="K6" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="L6" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>77.1</v>
+        <v>76.4</v>
       </c>
       <c r="M6" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>77.0333333333333</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,15 +2106,15 @@
       </c>
       <c r="K7" s="8" t="n">
         <f aca="false">INDEX(A:A, COUNTA(B:B)-7+ROW())</f>
-        <v>46080</v>
+        <v>46082</v>
       </c>
       <c r="L7" s="9" t="n">
         <f aca="false">INDEX(B:B, COUNTA(B:B)-7+ROW())</f>
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="M7" s="10" t="n">
         <f aca="false">INDEX(G:G, COUNTA(B:B)-7+ROW())</f>
-        <v>76.8</v>
+        <v>76.95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,7 +2217,7 @@
       </c>
       <c r="J10" s="3" t="n">
         <f aca="false">((I5 - I7) * 7000) / J9</f>
-        <v>55.2</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,7 +2335,7 @@
       </c>
       <c r="G14" s="7" t="n">
         <f aca="false">AVERAGE(B13:B19)</f>
-        <v>77.8</v>
+        <v>77.6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,7 +2363,7 @@
       </c>
       <c r="G15" s="7" t="n">
         <f aca="false">AVERAGE(B14:B20)</f>
-        <v>77.5</v>
+        <v>77.3428571428571</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,7 +2391,7 @@
       </c>
       <c r="G16" s="7" t="n">
         <f aca="false">AVERAGE(B15:B21)</f>
-        <v>77.2</v>
+        <v>77.1166666666667</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,7 +2419,7 @@
       </c>
       <c r="G17" s="7" t="n">
         <f aca="false">AVERAGE(B16:B22)</f>
-        <v>77.0333333333333</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,24 +2447,27 @@
       </c>
       <c r="G18" s="7" t="n">
         <f aca="false">AVERAGE(B17:B23)</f>
-        <v>76.8</v>
+        <v>76.875</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>46081</v>
       </c>
+      <c r="B19" s="1" t="n">
+        <v>76.4</v>
+      </c>
       <c r="C19" s="11" t="n">
         <f aca="false">B19-B18</f>
-        <v>-76.5</v>
+        <v>-0.0999999999999943</v>
       </c>
       <c r="D19" s="3" t="n">
         <f aca="false">B19*2.204623</f>
-        <v>0</v>
+        <v>168.4331972</v>
       </c>
       <c r="E19" s="7" t="n">
         <f aca="false">C19*2.204623</f>
-        <v>-168.6536595</v>
+        <v>-0.220462299999987</v>
       </c>
       <c r="F19" s="4" t="n">
         <f aca="false">A19</f>
@@ -2033,32 +2475,38 @@
       </c>
       <c r="G19" s="7" t="n">
         <f aca="false">AVERAGE(B18:B24)</f>
-        <v>76.5</v>
+        <v>76.8</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>46082</v>
       </c>
+      <c r="B20" s="1" t="n">
+        <v>77.5</v>
+      </c>
       <c r="C20" s="11" t="n">
         <f aca="false">B20-B19</f>
-        <v>0</v>
+        <v>1.09999999999999</v>
       </c>
       <c r="D20" s="3" t="n">
         <f aca="false">B20*2.204623</f>
-        <v>0</v>
+        <v>170.8582825</v>
       </c>
       <c r="E20" s="7" t="n">
         <f aca="false">C20*2.204623</f>
-        <v>0</v>
+        <v>2.42508529999999</v>
       </c>
       <c r="F20" s="4" t="n">
         <f aca="false">A20</f>
         <v>46082</v>
       </c>
-      <c r="G20" s="7" t="e">
+      <c r="G20" s="7" t="n">
         <f aca="false">AVERAGE(B19:B25)</f>
-        <v>#DIV/0!</v>
+        <v>76.95</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2067,7 +2515,7 @@
       </c>
       <c r="C21" s="11" t="n">
         <f aca="false">B21-B20</f>
-        <v>0</v>
+        <v>-77.5</v>
       </c>
       <c r="D21" s="3" t="n">
         <f aca="false">B21*2.204623</f>
@@ -2075,15 +2523,15 @@
       </c>
       <c r="E21" s="7" t="n">
         <f aca="false">C21*2.204623</f>
-        <v>0</v>
+        <v>-170.8582825</v>
       </c>
       <c r="F21" s="4" t="n">
         <f aca="false">A21</f>
         <v>46083</v>
       </c>
-      <c r="G21" s="7" t="e">
+      <c r="G21" s="7" t="n">
         <f aca="false">AVERAGE(B20:B26)</f>
-        <v>#DIV/0!</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,7 +3615,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" s="3" t="n">
         <f aca="false">I5-I8</f>
@@ -3214,7 +3662,7 @@
         <v>85.8571428571429</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" s="3" t="n">
         <f aca="false">102-I5</f>
@@ -3261,7 +3709,7 @@
         <v>85.7857142857143</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>75</v>
